--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>Nom du transformer</t>
   </si>
@@ -35,14 +35,254 @@
     <t>Présent (Oui/Non)</t>
   </si>
   <si>
-    <t>Qui le prend?</t>
+    <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
+  </si>
+  <si>
+    <t>AB_RESOURCES_FORMATTER</t>
+  </si>
+  <si>
+    <t>BC_DATA_READER</t>
+  </si>
+  <si>
+    <t>BC_GEOWAREHOUSE_URL_BUILDER</t>
+  </si>
+  <si>
+    <t>BC_RESOURCE_NAME_CORRECTION</t>
+  </si>
+  <si>
+    <t>BC_WMS_FORMATTER</t>
+  </si>
+  <si>
+    <t>DEFAULT_ATTRIBUTE_MAPPER</t>
+  </si>
+  <si>
+    <t>DUPLICATE_SERVICE_REMOVER</t>
+  </si>
+  <si>
+    <t>EMAIL_FORMAT_TESTER</t>
+  </si>
+  <si>
+    <t>FORMAT_VALIDATOR</t>
+  </si>
+  <si>
+    <t>GMD_SECTION_DATA_EXTRACTION</t>
+  </si>
+  <si>
+    <t>METADATA_FORMAT_MAPPER</t>
+  </si>
+  <si>
+    <t>METADATA_VALUE_MAPPER</t>
+  </si>
+  <si>
+    <t>MORE_INFO_MANAGER</t>
+  </si>
+  <si>
+    <t>ON_TRANSFER_LANG_MAPPER</t>
+  </si>
+  <si>
+    <t>QC_MISSING_EMAIL_SETTER</t>
+  </si>
+  <si>
+    <t>REMOVE_BROKEN_URL_WMS_ESRI_REST</t>
+  </si>
+  <si>
+    <t>RESOURCES_VALIDATOR</t>
+  </si>
+  <si>
+    <t>RESOURCE_NAME_UNDERSCORE_REMOVER</t>
+  </si>
+  <si>
+    <t>SOCRATA_RESOURCE_MAPPER</t>
+  </si>
+  <si>
+    <t>SocrataAPICaller</t>
+  </si>
+  <si>
+    <t>SocrataDateTimeConverter</t>
+  </si>
+  <si>
+    <t>SocrataHashIDGenerator</t>
+  </si>
+  <si>
+    <t>TEMPORAL_EXTENTS_MAPPER</t>
+  </si>
+  <si>
+    <t>TOPIC_PARSER</t>
+  </si>
+  <si>
+    <t>WMS_REST_LANGUAGE_FORMATTER</t>
+  </si>
+  <si>
+    <t>XML_PUBLISHER</t>
+  </si>
+  <si>
+    <t>AB_DATA_READER</t>
+  </si>
+  <si>
+    <t>AB_FGP_XML_BUILDER_PROD_05</t>
+  </si>
+  <si>
+    <t>AB_GEODISCOVER_RESOURCE_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>AMPERSAND_CHARACTER_REFERENCE_REMOVER</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_VALUE_TEXT_CLEANER</t>
+  </si>
+  <si>
+    <t>AWS_TRANSLATE</t>
+  </si>
+  <si>
+    <t>BC_FGP_XML_BUILDER_PROD_04</t>
+  </si>
+  <si>
+    <t>EMPTY_FORMAT_MAPPER</t>
+  </si>
+  <si>
+    <t>GEOPORTAL_WEBLINK_ADDER</t>
+  </si>
+  <si>
+    <t>GEOSPATIAL_DATA_VALIDATOR</t>
+  </si>
+  <si>
+    <t>GEO_EXTENTS_MAPPER</t>
+  </si>
+  <si>
+    <t>JSON_PUBLISHER</t>
+  </si>
+  <si>
+    <t>LICENSE_FILTER</t>
+  </si>
+  <si>
+    <t>LOOKUP_TABLES_READER</t>
+  </si>
+  <si>
+    <t>MANUAL_GEOSPATIAL_SETTER</t>
+  </si>
+  <si>
+    <t>MAP_RESOURCE_ATTRIBUTION_REMOVER</t>
+  </si>
+  <si>
+    <t>METADATA_DELTA_FINDER</t>
+  </si>
+  <si>
+    <t>METADATA_VALUE_MAPPER_ERROR_MANAGER</t>
+  </si>
+  <si>
+    <t>METADATA_VALUE_MAPPER_Nic</t>
+  </si>
+  <si>
+    <t>METADATA_VALUE_MAPPER_ONE2MANY</t>
+  </si>
+  <si>
+    <t>NB_BoundingBoxExtractor</t>
+  </si>
+  <si>
+    <t>NB_ESRIMAPPER</t>
+  </si>
+  <si>
+    <t>NB_FRENCH_TAG_SEPARATOR</t>
+  </si>
+  <si>
+    <t>NB_FrenchEnglishTitleDescSeparator</t>
+  </si>
+  <si>
+    <t>NB_ISOTOPIC_ASSIGNER</t>
+  </si>
+  <si>
+    <t>NB_ORGANIZATION_MAPPER</t>
+  </si>
+  <si>
+    <t>ON_DATA_READER</t>
+  </si>
+  <si>
+    <t>ON_DATE_FORMATTER</t>
+  </si>
+  <si>
+    <t>ON_GEOHUB_RESOURCE_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>ON_KEYWORD_RENAMER</t>
+  </si>
+  <si>
+    <t>PYCSW_URL_MAPPER</t>
+  </si>
+  <si>
+    <t>QC_ATTRIBUTE_MAPPER</t>
+  </si>
+  <si>
+    <t>QC_DATA_READER</t>
+  </si>
+  <si>
+    <t>QC_DATE_FORMATTER</t>
+  </si>
+  <si>
+    <t>QC_PROJECTION_GEOEXTENTS_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>QC_SECTOR_MAPPER_AND_FILTER</t>
+  </si>
+  <si>
+    <t>QC_TBS_ATTRIBUTE_VALUE_MAPPER</t>
+  </si>
+  <si>
+    <t>QC_WMS_URL_SETTER</t>
+  </si>
+  <si>
+    <t>SPATIAL_TYPE_MAPPER</t>
+  </si>
+  <si>
+    <t>TBS_DEFAULT_KEYWORD_TOPIC_SUBJECT</t>
+  </si>
+  <si>
+    <t>UNIQUE_ID_CREATOR</t>
+  </si>
+  <si>
+    <t>UPDATE_TO_PROGRESS_MAPPER</t>
+  </si>
+  <si>
+    <t>URL_CHARACTER_ENCODER</t>
+  </si>
+  <si>
+    <t>URL_HTTPS_MAKER</t>
+  </si>
+  <si>
+    <t>UUID_4_FORMATTER</t>
+  </si>
+  <si>
+    <t>YT_CATALOGUE_READER</t>
+  </si>
+  <si>
+    <t>YT_CONTACTS_MERGER</t>
+  </si>
+  <si>
+    <t>YT_DATA_READER</t>
+  </si>
+  <si>
+    <t>YT_DATE_FORMATTER</t>
+  </si>
+  <si>
+    <t>YT_GEOWEB_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>YT_MISSING_ATTRIBUTE_MANAGER</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Qui le prend? (BCG/DP)</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,13 +290,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,13 +345,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,18 +656,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -374,14 +678,1116 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -269,15 +269,6 @@
     <t>Non</t>
   </si>
   <si>
-    <t>Possède un fichier *.bat unittest</t>
-  </si>
-  <si>
-    <t>D'actualité?</t>
-  </si>
-  <si>
-    <t>Fonctionne</t>
-  </si>
-  <si>
     <t>NB_ATTRIBUTE_MANAGER.fmx</t>
   </si>
   <si>
@@ -311,13 +302,22 @@
     <t>YT_CUSTOM_CATALOGUE_READER.fmx</t>
   </si>
   <si>
-    <t>*.fmx sur github qui n'on pas d'équivalent en unittest</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Qui le prend? </t>
+  </si>
+  <si>
+    <t>Semble encore utilisé?</t>
+  </si>
+  <si>
+    <t>Fonctionne?</t>
+  </si>
+  <si>
+    <t>fichier *.bat unittest?</t>
+  </si>
+  <si>
+    <t>*.fmx sur github qui n'on pas de unittest</t>
   </si>
 </sst>
 </file>
@@ -868,15 +868,15 @@
   <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
     </row>
     <row r="80" spans="1:5" s="22" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -2079,166 +2079,166 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="D89" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E91" s="17"/>
     </row>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="106">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -599,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -671,7 +671,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -735,12 +734,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1027,8 +1040,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,8 +1051,8 @@
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1059,13 +1072,13 @@
       <c r="E1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1083,10 +1096,10 @@
       <c r="E2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="32"/>
+      <c r="F2" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="31"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,10 +1116,10 @@
       <c r="E3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="32"/>
+      <c r="F3" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="31"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,10 +1136,10 @@
       <c r="E4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="32"/>
+      <c r="F4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="31"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1143,10 +1156,10 @@
       <c r="E5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="32"/>
+      <c r="F5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="31"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1163,10 +1176,10 @@
       <c r="E6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="32"/>
+      <c r="F6" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="31"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,10 +1196,10 @@
       <c r="E7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1203,10 +1216,10 @@
       <c r="E8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="32"/>
+      <c r="F8" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="31"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1223,10 +1236,10 @@
       <c r="E9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="32"/>
+      <c r="F9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="31"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,10 +1256,10 @@
       <c r="E10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="32"/>
+      <c r="F10" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="31"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1263,10 +1276,10 @@
       <c r="E11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="32"/>
+      <c r="F11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="31"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1283,10 +1296,10 @@
       <c r="E12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="32"/>
+      <c r="F12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="31"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1299,16 +1312,16 @@
       <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="32"/>
+      <c r="F13" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="31"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1327,10 +1340,10 @@
       <c r="E14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="32"/>
+      <c r="F14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="31"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1349,10 +1362,10 @@
       <c r="E15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="32"/>
+      <c r="F15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="31"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,10 +1384,10 @@
       <c r="E16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="26"/>
+      <c r="F16" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="50"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1393,10 +1406,10 @@
       <c r="E17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="26"/>
+      <c r="F17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="50"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1409,13 +1422,13 @@
       <c r="C18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G18" s="26"/>
@@ -1437,10 +1450,10 @@
       <c r="E19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="26"/>
+      <c r="F19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="50"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,10 +1472,10 @@
       <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="26"/>
+      <c r="F20" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="50"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,10 +1494,10 @@
       <c r="E21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,10 +1516,10 @@
       <c r="E22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="26"/>
+      <c r="F22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="50"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1525,10 +1538,10 @@
       <c r="E23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="26"/>
+      <c r="F23" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="50"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,10 +1560,10 @@
       <c r="E24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="26"/>
+      <c r="F24" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="50"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1569,10 +1582,10 @@
       <c r="E25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="26"/>
+      <c r="F25" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="50"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,10 +1604,10 @@
       <c r="E26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="26"/>
+      <c r="F26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="50"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,10 +1626,10 @@
       <c r="E27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="26"/>
+      <c r="F27" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="50"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,10 +1648,10 @@
       <c r="E28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="26"/>
+      <c r="F28" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="50"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1657,11 +1670,11 @@
       <c r="E29" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
+      <c r="F29" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="27" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1681,10 +1694,10 @@
       <c r="E30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="27"/>
+      <c r="F30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="52"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1703,11 +1716,11 @@
       <c r="E31" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="29" t="s">
+      <c r="F31" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1727,10 +1740,10 @@
       <c r="E32" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="26"/>
+      <c r="F32" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="50"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1749,10 +1762,10 @@
       <c r="E33" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="27"/>
+      <c r="F33" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="52"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,10 +1784,10 @@
       <c r="E34" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="27"/>
+      <c r="F34" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="52"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,10 +1806,10 @@
       <c r="E35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="26"/>
+      <c r="F35" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="50"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,10 +1828,10 @@
       <c r="E36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="26"/>
+      <c r="F36" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="50"/>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1837,7 +1850,7 @@
       <c r="E37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="26"/>
@@ -1859,10 +1872,10 @@
       <c r="E38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="26"/>
+      <c r="F38" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="50"/>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,19 +1885,19 @@
       <c r="B39" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="40" t="s">
+      <c r="C39" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="26"/>
+      <c r="F39" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="50"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1903,7 +1916,7 @@
       <c r="E40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G40" s="26"/>
@@ -1925,10 +1938,10 @@
       <c r="E41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="26"/>
+      <c r="F41" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="50"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1947,10 +1960,10 @@
       <c r="E42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="26"/>
+      <c r="F42" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="50"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1969,10 +1982,10 @@
       <c r="E43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="26"/>
+      <c r="F43" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1991,7 +2004,7 @@
       <c r="E44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="26"/>
@@ -2013,10 +2026,10 @@
       <c r="E45" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="26"/>
+      <c r="F45" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="50"/>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2035,11 +2048,11 @@
       <c r="E46" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="29" t="s">
+      <c r="F46" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="52"/>
+      <c r="H46" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2059,10 +2072,10 @@
       <c r="E47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="26"/>
+      <c r="F47" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="50"/>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,10 +2094,10 @@
       <c r="E48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="26"/>
+      <c r="F48" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="50"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2103,10 +2116,10 @@
       <c r="E49" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="26"/>
+      <c r="F49" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="50"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2125,10 +2138,10 @@
       <c r="E50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="26"/>
+      <c r="F50" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="50"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2147,10 +2160,10 @@
       <c r="E51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="26"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,10 +2182,10 @@
       <c r="E52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="26"/>
+      <c r="F52" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="50"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2191,11 +2204,11 @@
       <c r="E53" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="29" t="s">
+      <c r="F53" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="28" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2215,10 +2228,12 @@
       <c r="E54" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="26"/>
+      <c r="F54" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>105</v>
+      </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2237,10 +2252,10 @@
       <c r="E55" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="26"/>
+      <c r="F55" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="50"/>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2259,10 +2274,10 @@
       <c r="E56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="52" t="s">
+      <c r="F56" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="51" t="s">
         <v>105</v>
       </c>
       <c r="H56" s="8"/>
@@ -2283,10 +2298,10 @@
       <c r="E57" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="26"/>
+      <c r="F57" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="50"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2305,10 +2320,10 @@
       <c r="E58" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="26"/>
+      <c r="F58" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="50"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2327,10 +2342,10 @@
       <c r="E59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="26"/>
+      <c r="F59" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="50"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,10 +2364,10 @@
       <c r="E60" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="26"/>
+      <c r="F60" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="50"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2371,10 +2386,10 @@
       <c r="E61" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="26"/>
+      <c r="F61" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="50"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,10 +2408,10 @@
       <c r="E62" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="37" t="s">
+      <c r="F62" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="26"/>
+      <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2415,10 +2430,10 @@
       <c r="E63" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" s="26"/>
+      <c r="F63" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2452,7 @@
       <c r="E64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="37" t="s">
+      <c r="F64" s="36" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="26"/>
@@ -2459,10 +2474,10 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="26"/>
+      <c r="F65" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="50"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2481,10 +2496,10 @@
       <c r="E66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="26"/>
+      <c r="F66" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="50"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2503,10 +2518,10 @@
       <c r="E67" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="26"/>
+      <c r="F67" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="50"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2525,10 +2540,10 @@
       <c r="E68" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="26"/>
+      <c r="F68" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="50"/>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2547,10 +2562,10 @@
       <c r="E69" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="26"/>
+      <c r="F69" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="50"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,10 +2584,10 @@
       <c r="E70" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="26"/>
+      <c r="F70" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="50"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,10 +2606,10 @@
       <c r="E71" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="26"/>
+      <c r="F71" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="50"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2613,10 +2628,10 @@
       <c r="E72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" s="26"/>
+      <c r="F72" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2635,10 +2650,10 @@
       <c r="E73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="26"/>
+      <c r="F73" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="50"/>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2657,10 +2672,10 @@
       <c r="E74" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="26"/>
+      <c r="F74" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="50"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2679,10 +2694,10 @@
       <c r="E75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="26"/>
+      <c r="F75" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="50"/>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,10 +2716,10 @@
       <c r="E76" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" s="26"/>
+      <c r="F76" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="50"/>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,10 +2738,10 @@
       <c r="E77" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="26"/>
+      <c r="F77" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="50"/>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2745,10 +2760,10 @@
       <c r="E78" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="26"/>
+      <c r="F78" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="50"/>
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,33 +2782,33 @@
       <c r="E79" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F79" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="26"/>
+      <c r="F79" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="50"/>
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="51"/>
+      <c r="B80" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="53"/>
+      <c r="H80" s="49"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -2811,10 +2826,10 @@
       <c r="E81" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F81" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" s="26"/>
+      <c r="F81" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="50"/>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2833,10 +2848,10 @@
       <c r="E82" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F82" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="26"/>
+      <c r="F82" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="50"/>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2855,10 +2870,10 @@
       <c r="E83" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="26"/>
+      <c r="F83" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="50"/>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2877,10 +2892,10 @@
       <c r="E84" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G84" s="26"/>
+      <c r="G84" s="50"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2899,11 +2914,11 @@
       <c r="E85" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="27"/>
-      <c r="H85" s="28" t="s">
+      <c r="F85" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="52"/>
+      <c r="H85" s="27" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2923,11 +2938,11 @@
       <c r="E86" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="28" t="s">
+      <c r="F86" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="52"/>
+      <c r="H86" s="27" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2947,10 +2962,10 @@
       <c r="E87" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F87" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="26"/>
+      <c r="F87" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="50"/>
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,10 +2984,10 @@
       <c r="E88" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="26"/>
+      <c r="F88" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="50"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2991,10 +3006,10 @@
       <c r="E89" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="26"/>
+      <c r="F89" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="50"/>
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3013,23 +3028,23 @@
       <c r="E90" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="26"/>
+      <c r="F90" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="50"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="50"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="48"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="106">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2231,7 @@
       <c r="F54" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="50" t="s">
+      <c r="G54" s="51" t="s">
         <v>105</v>
       </c>
       <c r="H54" s="8"/>
@@ -2323,7 +2323,9 @@
       <c r="F58" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="50"/>
+      <c r="G58" s="50" t="s">
+        <v>105</v>
+      </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="106">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -1040,8 +1040,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1387,9 @@
       <c r="F16" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2323,7 +2325,7 @@
       <c r="F58" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="51" t="s">
         <v>105</v>
       </c>
       <c r="H58" s="8"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrepeau\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$237</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="113">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -345,13 +345,34 @@
   </si>
   <si>
     <t>Benoît</t>
+  </si>
+  <si>
+    <t>LOOKUP_TABLES_READER_NG</t>
+  </si>
+  <si>
+    <t>Remplacer par LOOKUP_TABLES_READER_NG</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Remplace LOOKUP_TABLES_READER</t>
+  </si>
+  <si>
+    <t>Remplacer par GEO_NONE_GEO_SELECTOR</t>
+  </si>
+  <si>
+    <t>GEO_NONE_GEO_SELECTOR</t>
+  </si>
+  <si>
+    <t>Remplace GEO_NONE_GEO_SELECTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +494,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +532,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -595,11 +635,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -756,9 +797,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1038,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
@@ -1502,53 +1563,59 @@
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>78</v>
@@ -1568,9 +1635,9 @@
       <c r="G24" s="50"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
@@ -1590,9 +1657,9 @@
       <c r="G25" s="50"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>43</v>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>78</v>
@@ -1614,7 +1681,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>78</v>
@@ -1636,7 +1703,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>78</v>
@@ -1656,123 +1723,123 @@
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="27" t="s">
+      <c r="B30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="B31" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="28" t="s">
+      <c r="B32" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="B33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>78</v>
@@ -1793,30 +1860,30 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
@@ -1836,64 +1903,64 @@
       <c r="G36" s="50"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="22" t="s">
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F39" s="34" t="s">
@@ -1902,32 +1969,32 @@
       <c r="G39" s="50"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="B41" s="5" t="s">
         <v>78</v>
       </c>
@@ -1940,15 +2007,15 @@
       <c r="E41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="50"/>
+      <c r="F41" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="26"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>78</v>
@@ -1968,9 +2035,9 @@
       <c r="G42" s="50"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>64</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>78</v>
@@ -1990,99 +2057,99 @@
       <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="28" t="s">
+      <c r="B47" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="52"/>
+      <c r="H47" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>78</v>
@@ -2102,9 +2169,9 @@
       <c r="G48" s="50"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>67</v>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>78</v>
@@ -2124,9 +2191,9 @@
       <c r="G49" s="50"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>69</v>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>78</v>
@@ -2146,9 +2213,9 @@
       <c r="G50" s="50"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>70</v>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>78</v>
@@ -2162,15 +2229,15 @@
       <c r="E51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="36" t="s">
-        <v>102</v>
+      <c r="F51" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G51" s="50"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>25</v>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -2184,177 +2251,177 @@
       <c r="E52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="34" t="s">
-        <v>79</v>
+      <c r="F52" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G52" s="50"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="28" t="s">
+      <c r="B54" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="51" t="s">
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B56" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="50"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="51" t="s">
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="50"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="B58" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="50"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="51" t="s">
+      <c r="B59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="50"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>78</v>
@@ -2376,7 +2443,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
@@ -2398,7 +2465,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>78</v>
@@ -2412,15 +2479,15 @@
       <c r="E62" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="36" t="s">
-        <v>102</v>
+      <c r="F62" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -2434,38 +2501,38 @@
       <c r="E63" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="34" t="s">
-        <v>79</v>
+      <c r="F63" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="50"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
       </c>
@@ -2478,15 +2545,15 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="50"/>
+      <c r="F65" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="26"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
@@ -2508,7 +2575,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -2528,9 +2595,9 @@
       <c r="G67" s="50"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>9</v>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -2552,7 +2619,7 @@
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>78</v>
@@ -2572,9 +2639,9 @@
       <c r="G69" s="50"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>10</v>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -2596,7 +2663,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -2618,7 +2685,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -2638,31 +2705,33 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="50"/>
-      <c r="H73" s="8"/>
+    <row r="73" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="61"/>
+      <c r="H73" s="63" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>78</v>
@@ -2679,12 +2748,16 @@
       <c r="F74" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="50"/>
-      <c r="H74" s="8"/>
+      <c r="G74" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>78</v>
@@ -2706,7 +2779,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -2726,9 +2799,9 @@
       <c r="G76" s="50"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>56</v>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>78</v>
@@ -2750,7 +2823,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -2770,9 +2843,9 @@
       <c r="G78" s="50"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>59</v>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -2792,31 +2865,31 @@
       <c r="G79" s="50"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="53"/>
-      <c r="H80" s="49"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>15</v>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="50"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -2836,31 +2909,31 @@
       <c r="G81" s="50"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="50"/>
-      <c r="H82" s="8"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>18</v>
+    <row r="82" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="53"/>
+      <c r="H82" s="49"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -2882,7 +2955,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -2896,107 +2969,107 @@
       <c r="E84" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="36" t="s">
-        <v>103</v>
+      <c r="F84" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G84" s="50"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="50"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="27" t="s">
+      <c r="B87" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="52"/>
+      <c r="H87" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="52"/>
-      <c r="H86" s="27" t="s">
+      <c r="B88" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="52"/>
+      <c r="H88" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="50"/>
-      <c r="H87" s="8"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="50"/>
-      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>78</v>
@@ -3016,9 +3089,9 @@
       <c r="G89" s="50"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>26</v>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>78</v>
@@ -3038,596 +3111,640 @@
       <c r="G90" s="50"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="50"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="50"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="48"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="48"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-    </row>
-    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+    <row r="216" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+    <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+    <row r="222" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+    <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+    <row r="228" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
+    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H235">
+  <autoFilter ref="A1:H237">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrepeau\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$235</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="106">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -345,34 +345,13 @@
   </si>
   <si>
     <t>Benoît</t>
-  </si>
-  <si>
-    <t>LOOKUP_TABLES_READER_NG</t>
-  </si>
-  <si>
-    <t>Remplacer par LOOKUP_TABLES_READER_NG</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Remplace LOOKUP_TABLES_READER</t>
-  </si>
-  <si>
-    <t>Remplacer par GEO_NONE_GEO_SELECTOR</t>
-  </si>
-  <si>
-    <t>GEO_NONE_GEO_SELECTOR</t>
-  </si>
-  <si>
-    <t>Remplace GEO_NONE_GEO_SELECTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,22 +473,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,11 +497,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -635,12 +595,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -797,29 +756,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,7 +775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1099,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
@@ -1563,33 +1502,31 @@
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>111</v>
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>78</v>
@@ -1600,22 +1537,18 @@
       <c r="D23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>39</v>
+      <c r="G23" s="50"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>78</v>
@@ -1635,9 +1568,9 @@
       <c r="G24" s="50"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
@@ -1657,9 +1590,9 @@
       <c r="G25" s="50"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>42</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>78</v>
@@ -1681,7 +1614,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>78</v>
@@ -1703,7 +1636,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>78</v>
@@ -1723,31 +1656,33 @@
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>78</v>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="27" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>47</v>
+      <c r="A30" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>78</v>
@@ -1765,13 +1700,11 @@
         <v>79</v>
       </c>
       <c r="G30" s="52"/>
-      <c r="H30" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>48</v>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>78</v>
@@ -1788,58 +1721,58 @@
       <c r="F31" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="28" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>79</v>
+      <c r="A32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G32" s="50"/>
-      <c r="H32" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>78</v>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>51</v>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>78</v>
@@ -1860,30 +1793,30 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>79</v>
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>53</v>
+    <row r="36" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
@@ -1903,9 +1836,9 @@
       <c r="G36" s="50"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>54</v>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>78</v>
@@ -1919,15 +1852,15 @@
       <c r="E37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="50"/>
+      <c r="F37" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="26"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>55</v>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>78</v>
@@ -1941,26 +1874,26 @@
       <c r="E38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="26"/>
+      <c r="F38" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="50"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="9" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F39" s="34" t="s">
@@ -1969,31 +1902,31 @@
       <c r="G39" s="50"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="50"/>
+    <row r="40" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="26"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>61</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>78</v>
@@ -2007,15 +1940,15 @@
       <c r="E41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="26"/>
+      <c r="F41" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="50"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>78</v>
@@ -2035,9 +1968,9 @@
       <c r="G42" s="50"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>63</v>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>78</v>
@@ -2057,9 +1990,9 @@
       <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>64</v>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
@@ -2073,15 +2006,15 @@
       <c r="E44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="50"/>
+      <c r="F44" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="26"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
@@ -2095,61 +2028,61 @@
       <c r="E45" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="26"/>
+      <c r="F45" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="50"/>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>78</v>
+      <c r="A46" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>79</v>
+      <c r="G46" s="52"/>
+      <c r="H46" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>66</v>
+      <c r="G47" s="50"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>78</v>
@@ -2169,9 +2102,9 @@
       <c r="G48" s="50"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>23</v>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>78</v>
@@ -2191,9 +2124,9 @@
       <c r="G49" s="50"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>67</v>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>78</v>
@@ -2213,9 +2146,9 @@
       <c r="G50" s="50"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>69</v>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>78</v>
@@ -2229,15 +2162,15 @@
       <c r="E51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="34" t="s">
-        <v>79</v>
+      <c r="F51" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G51" s="50"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>70</v>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -2251,153 +2184,155 @@
       <c r="E52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="36" t="s">
-        <v>102</v>
+      <c r="F52" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G52" s="50"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>78</v>
+      <c r="A53" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F53" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G53" s="50"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="28" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>79</v>
+      <c r="A54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>78</v>
+      <c r="G54" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F55" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="50"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="50"/>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>78</v>
+      <c r="A57" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="50"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="50"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>77</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>78</v>
@@ -2408,20 +2343,18 @@
       <c r="D59" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>79</v>
+      <c r="E59" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="G59" s="50"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>78</v>
@@ -2443,7 +2376,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
@@ -2465,7 +2398,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>78</v>
@@ -2479,15 +2412,15 @@
       <c r="E62" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="34" t="s">
-        <v>79</v>
+      <c r="F62" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -2501,15 +2434,15 @@
       <c r="E63" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="36" t="s">
-        <v>102</v>
+      <c r="F63" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>3</v>
+    <row r="64" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -2523,15 +2456,15 @@
       <c r="E64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="50"/>
+      <c r="F64" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="26"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>4</v>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
@@ -2545,15 +2478,15 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="26"/>
+      <c r="F65" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="50"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
@@ -2575,7 +2508,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -2595,9 +2528,9 @@
       <c r="G67" s="50"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>8</v>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -2619,7 +2552,7 @@
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>78</v>
@@ -2639,9 +2572,9 @@
       <c r="G69" s="50"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>37</v>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -2663,7 +2596,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -2685,7 +2618,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -2705,33 +2638,31 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="61"/>
-      <c r="H73" s="63" t="s">
-        <v>107</v>
-      </c>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="50"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>78</v>
@@ -2748,16 +2679,12 @@
       <c r="F74" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="G74" s="50"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>78</v>
@@ -2779,7 +2706,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -2799,9 +2726,9 @@
       <c r="G76" s="50"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>46</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>78</v>
@@ -2823,7 +2750,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -2843,9 +2770,9 @@
       <c r="G78" s="50"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>56</v>
+    <row r="79" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -2865,31 +2792,31 @@
       <c r="G79" s="50"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="50"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>59</v>
+    <row r="80" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="53"/>
+      <c r="H80" s="49"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -2909,31 +2836,31 @@
       <c r="G81" s="50"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="49"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>15</v>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="50"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -2955,7 +2882,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -2969,107 +2896,107 @@
       <c r="E84" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="34" t="s">
-        <v>79</v>
+      <c r="F84" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="G84" s="50"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>78</v>
+      <c r="A85" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="25" t="s">
         <v>78</v>
       </c>
       <c r="F85" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="50"/>
-      <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>78</v>
+      <c r="G85" s="52"/>
+      <c r="H85" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>79</v>
+      <c r="E86" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="52"/>
+      <c r="H86" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="25" t="s">
+      <c r="E87" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>79</v>
+      <c r="G87" s="50"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="E88" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G88" s="52"/>
-      <c r="H88" s="27" t="s">
-        <v>89</v>
-      </c>
+      <c r="G88" s="50"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>78</v>
@@ -3089,9 +3016,9 @@
       <c r="G89" s="50"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>68</v>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>78</v>
@@ -3111,640 +3038,596 @@
       <c r="G90" s="50"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="50"/>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+    <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="48"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="48"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H237">
+  <autoFilter ref="A1:H235">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrepeau\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$238</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="115">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Remplace GEO_NONE_GEO_SELECTOR</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_MANAGER</t>
+  </si>
+  <si>
+    <t>Nouveau</t>
   </si>
 </sst>
 </file>
@@ -818,8 +824,8 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,7 +842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1099,13 +1105,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
@@ -2374,76 +2380,80 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="B59" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="51" t="s">
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="50"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
@@ -2465,7 +2475,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>78</v>
@@ -2487,7 +2497,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -2501,15 +2511,15 @@
       <c r="E63" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="36" t="s">
-        <v>102</v>
+      <c r="F63" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -2523,38 +2533,38 @@
       <c r="E64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="34" t="s">
-        <v>79</v>
+      <c r="F64" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G64" s="50"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
       </c>
@@ -2567,15 +2577,15 @@
       <c r="E66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="50"/>
+      <c r="F66" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="26"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -2597,7 +2607,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -2617,9 +2627,9 @@
       <c r="G68" s="50"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>9</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>78</v>
@@ -2641,7 +2651,7 @@
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -2661,9 +2671,9 @@
       <c r="G70" s="50"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>10</v>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -2685,7 +2695,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -2705,81 +2715,81 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="50"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="61"/>
-      <c r="H73" s="63" t="s">
+      <c r="B74" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="61"/>
+      <c r="H74" s="63" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="50" t="s">
+      <c r="B75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H75" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -2799,9 +2809,9 @@
       <c r="G76" s="50"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>46</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>78</v>
@@ -2821,9 +2831,9 @@
       <c r="G77" s="50"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>13</v>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -2845,7 +2855,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -2867,7 +2877,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>78</v>
@@ -2887,9 +2897,9 @@
       <c r="G80" s="50"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>59</v>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -2909,53 +2919,53 @@
       <c r="G81" s="50"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="41" t="s">
+    <row r="82" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="50"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B82" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="49"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="50"/>
-      <c r="H83" s="8"/>
+      <c r="B83" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="53"/>
+      <c r="H83" s="49"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -2975,9 +2985,9 @@
       <c r="G84" s="50"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>18</v>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -2997,9 +3007,9 @@
       <c r="G85" s="50"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>19</v>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -3013,39 +3023,37 @@
       <c r="E86" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="36" t="s">
-        <v>103</v>
+      <c r="F86" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G86" s="50"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G87" s="50"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>78</v>
@@ -3067,31 +3075,33 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>78</v>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="25" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="50"/>
-      <c r="H89" s="8"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="27" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>78</v>
@@ -3113,7 +3123,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>78</v>
@@ -3133,9 +3143,9 @@
       <c r="G91" s="50"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>26</v>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>78</v>
@@ -3155,596 +3165,618 @@
       <c r="G92" s="50"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="50"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="48"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="48"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H237">
+  <autoFilter ref="A1:H238">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="115">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -1107,8 +1107,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2238,9 @@
       <c r="F51" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="50"/>
+      <c r="G51" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -822,6 +822,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -1107,8 +1111,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,27 +2201,27 @@
       <c r="G49" s="50"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="50"/>
-      <c r="H50" s="8"/>
+      <c r="B50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="52"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcrepeau\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -828,8 +828,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1111,11 +1111,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcampeau\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$239</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="118">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>Nouveau</t>
+  </si>
+  <si>
+    <t>NB_FrenchEnglishAttributeSeparator</t>
+  </si>
+  <si>
+    <t>Benoît Campeau</t>
+  </si>
+  <si>
+    <t>Remplace NB_FrenchEnglishTitleDescSeparator</t>
   </si>
 </sst>
 </file>
@@ -828,8 +837,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1109,25 +1118,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.7265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1213,7 +1222,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1233,7 +1242,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1253,7 +1262,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1273,7 +1282,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1313,7 +1322,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1333,7 +1342,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1353,7 +1362,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1373,7 +1382,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1404,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +1426,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1439,7 +1448,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1472,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1494,7 @@
       <c r="G17" s="50"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1516,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1551,7 +1560,7 @@
       <c r="G20" s="50"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1573,7 +1582,7 @@
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -1645,7 +1654,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -1667,7 +1676,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1689,7 +1698,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -1711,7 +1720,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1733,7 +1742,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1764,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>48</v>
       </c>
@@ -1801,7 +1810,7 @@
       <c r="G31" s="52"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>49</v>
       </c>
@@ -1825,15 +1834,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>78</v>
+      <c r="B33" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>96</v>
@@ -1847,31 +1856,35 @@
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>78</v>
@@ -1891,31 +1904,31 @@
       <c r="G35" s="52"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>78</v>
@@ -1935,64 +1948,64 @@
       <c r="G37" s="50"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="26"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F40" s="34" t="s">
@@ -2001,53 +2014,53 @@
       <c r="G40" s="50"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="50"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>78</v>
@@ -2067,9 +2080,9 @@
       <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>64</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
@@ -2089,99 +2102,99 @@
       <c r="G44" s="50"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="50"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="50"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="28" t="s">
+      <c r="B48" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="52"/>
+      <c r="H48" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>78</v>
@@ -2201,196 +2214,194 @@
       <c r="G49" s="50"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="66"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="52"/>
+      <c r="H51" s="66"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="51" t="s">
+      <c r="B52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="36" t="s">
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="36" t="s">
         <v>102</v>
-      </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>79</v>
       </c>
       <c r="G53" s="50"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="28" t="s">
+      <c r="B55" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="50"/>
+      <c r="H55" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="51" t="s">
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="B58" s="5" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>78</v>
@@ -2398,8 +2409,8 @@
       <c r="D58" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>78</v>
+      <c r="E58" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>79</v>
@@ -2407,81 +2418,83 @@
       <c r="G58" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="B60" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="50"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="51" t="s">
+      <c r="B61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>78</v>
@@ -2501,9 +2514,9 @@
       <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -2523,9 +2536,9 @@
       <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -2539,15 +2552,15 @@
       <c r="E64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="36" t="s">
-        <v>102</v>
+      <c r="F64" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G64" s="50"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
@@ -2561,59 +2574,59 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>79</v>
+      <c r="F65" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G65" s="50"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="50"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="26"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="50"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -2633,9 +2646,9 @@
       <c r="G68" s="50"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>78</v>
@@ -2655,9 +2668,9 @@
       <c r="G69" s="50"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>9</v>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -2677,9 +2690,9 @@
       <c r="G70" s="50"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -2699,9 +2712,9 @@
       <c r="G71" s="50"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>10</v>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -2721,9 +2734,9 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -2743,81 +2756,81 @@
       <c r="G73" s="50"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="50"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="63" t="s">
+      <c r="B75" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="61"/>
+      <c r="H75" s="63" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="50" t="s">
+      <c r="B76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H76" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>78</v>
@@ -2837,9 +2850,9 @@
       <c r="G77" s="50"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>46</v>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -2859,9 +2872,9 @@
       <c r="G78" s="50"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>13</v>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -2881,9 +2894,9 @@
       <c r="G79" s="50"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>78</v>
@@ -2903,9 +2916,9 @@
       <c r="G80" s="50"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -2925,9 +2938,9 @@
       <c r="G81" s="50"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>59</v>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -2947,53 +2960,53 @@
       <c r="G82" s="50"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+    <row r="83" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="50"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B83" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="53"/>
-      <c r="H83" s="49"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="B84" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="53"/>
+      <c r="H84" s="49"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -3013,9 +3026,9 @@
       <c r="G85" s="50"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>18</v>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -3035,9 +3048,9 @@
       <c r="G86" s="50"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>19</v>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -3051,39 +3064,37 @@
       <c r="E87" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F87" s="36" t="s">
-        <v>103</v>
+      <c r="F87" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="50"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="52"/>
-      <c r="H88" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>78</v>
@@ -3105,31 +3116,33 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="52"/>
+      <c r="H90" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="50"/>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>78</v>
@@ -3149,9 +3162,9 @@
       <c r="G91" s="50"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>78</v>
@@ -3171,9 +3184,9 @@
       <c r="G92" s="50"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>26</v>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>78</v>
@@ -3193,596 +3206,618 @@
       <c r="G93" s="50"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94" s="50"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="48"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="48"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H238">
+  <autoFilter ref="A1:H239">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcampeau\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="119">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Remplace NB_FrenchEnglishTitleDescSeparator</t>
+  </si>
+  <si>
+    <t>Oui mais OK</t>
   </si>
 </sst>
 </file>
@@ -1120,23 +1123,23 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.7265625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -1182,7 +1185,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1202,7 +1205,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1222,7 +1225,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1242,7 +1245,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1282,7 +1285,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1322,7 +1325,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1362,7 +1365,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1382,7 +1385,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +1407,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1426,7 +1429,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1451,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1497,7 @@
       <c r="G17" s="50"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1516,7 +1519,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +1563,7 @@
       <c r="G20" s="50"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1573,16 +1576,16 @@
       <c r="D21" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>79</v>
+      <c r="E21" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -1676,7 +1679,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -1720,7 +1723,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +1767,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>48</v>
       </c>
@@ -1810,7 +1813,7 @@
       <c r="G31" s="52"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>49</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>50</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>115</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>51</v>
       </c>
@@ -1904,7 +1907,7 @@
       <c r="G35" s="52"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>52</v>
       </c>
@@ -1926,7 +1929,7 @@
       <c r="G36" s="52"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="G37" s="50"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1970,7 +1973,7 @@
       <c r="G38" s="50"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -1992,7 +1995,7 @@
       <c r="G39" s="26"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2017,7 @@
       <c r="G40" s="50"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>57</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="G41" s="50"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
@@ -2058,7 +2061,7 @@
       <c r="G42" s="26"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>62</v>
       </c>
@@ -2080,7 +2083,7 @@
       <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>63</v>
       </c>
@@ -2102,7 +2105,7 @@
       <c r="G44" s="50"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>64</v>
       </c>
@@ -2124,7 +2127,7 @@
       <c r="G45" s="50"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>16</v>
       </c>
@@ -2146,7 +2149,7 @@
       <c r="G46" s="26"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
@@ -2168,7 +2171,7 @@
       <c r="G47" s="50"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>66</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="G49" s="50"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +2239,7 @@
       <c r="G50" s="50"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>67</v>
       </c>
@@ -2258,7 +2261,7 @@
       <c r="G51" s="52"/>
       <c r="H51" s="66"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>69</v>
       </c>
@@ -2282,7 +2285,7 @@
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>70</v>
       </c>
@@ -2304,7 +2307,7 @@
       <c r="G53" s="50"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2329,7 @@
       <c r="G54" s="50"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>73</v>
       </c>
@@ -2374,7 +2377,7 @@
       </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>74</v>
       </c>
@@ -2396,7 +2399,7 @@
       <c r="G57" s="50"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
@@ -2420,7 +2423,7 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>113</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>76</v>
       </c>
@@ -2468,7 +2471,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>77</v>
       </c>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>27</v>
       </c>
@@ -2514,7 +2517,7 @@
       <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2539,7 @@
       <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2561,7 @@
       <c r="G64" s="50"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2580,7 +2583,7 @@
       <c r="G65" s="50"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>3</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="G66" s="50"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>4</v>
       </c>
@@ -2624,7 +2627,7 @@
       <c r="G67" s="26"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>5</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="G68" s="50"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>6</v>
       </c>
@@ -2668,7 +2671,7 @@
       <c r="G69" s="50"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -2690,7 +2693,7 @@
       <c r="G70" s="50"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>9</v>
       </c>
@@ -2712,7 +2715,7 @@
       <c r="G71" s="50"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>37</v>
       </c>
@@ -2734,7 +2737,7 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +2759,7 @@
       <c r="G73" s="50"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>38</v>
       </c>
@@ -2778,7 +2781,7 @@
       <c r="G74" s="50"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="59" t="s">
         <v>40</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>106</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2853,7 @@
       <c r="G77" s="50"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>45</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="G78" s="50"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>46</v>
       </c>
@@ -2894,7 +2897,7 @@
       <c r="G79" s="50"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2919,7 @@
       <c r="G80" s="50"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>56</v>
       </c>
@@ -2938,7 +2941,7 @@
       <c r="G81" s="50"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
@@ -2960,7 +2963,7 @@
       <c r="G82" s="50"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>59</v>
       </c>
@@ -2982,7 +2985,7 @@
       <c r="G83" s="50"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>60</v>
       </c>
@@ -3004,7 +3007,7 @@
       <c r="G84" s="53"/>
       <c r="H84" s="49"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>15</v>
       </c>
@@ -3026,7 +3029,7 @@
       <c r="G85" s="50"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
@@ -3048,7 +3051,7 @@
       <c r="G86" s="50"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>18</v>
       </c>
@@ -3070,7 +3073,7 @@
       <c r="G87" s="50"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>19</v>
       </c>
@@ -3092,7 +3095,7 @@
       <c r="G88" s="50"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>22</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
@@ -3162,7 +3165,7 @@
       <c r="G91" s="50"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="G92" s="50"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>71</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="G93" s="50"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>26</v>
       </c>
@@ -3228,7 +3231,7 @@
       <c r="G94" s="50"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="40" t="s">
         <v>95</v>
       </c>
@@ -3240,579 +3243,579 @@
       <c r="G95" s="54"/>
       <c r="H95" s="48"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
     </row>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="121">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>Oui mais OK</t>
+  </si>
+  <si>
+    <t>Benoît / David</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -840,8 +846,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -858,7 +864,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1124,18 +1130,18 @@
   <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="32" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1464,14 +1470,14 @@
       <c r="D16" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>79</v>
+      <c r="E16" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -1554,13 +1560,15 @@
       <c r="D20" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>79</v>
+      <c r="E20" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="50" t="s">
+        <v>120</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1767,7 +1775,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>47</v>
       </c>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="122">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -844,6 +847,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1127,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1485,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1507,7 @@
       <c r="G17" s="50"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1525,7 +1529,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1551,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1571,7 +1575,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1597,7 @@
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -1642,8 +1646,11 @@
       <c r="H23" s="58" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I23" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -1656,16 +1663,18 @@
       <c r="D24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>79</v>
+      <c r="E24" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>120</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -1687,7 +1696,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1718,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +1740,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1762,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1775,7 +1784,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>48</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="G31" s="52"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>49</v>
       </c>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>David</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -823,9 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1133,8 +1127,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,31 +1591,31 @@
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="63" t="s">
+      <c r="B22" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -1634,8 +1628,8 @@
       <c r="D23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="56" t="s">
-        <v>79</v>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>79</v>
@@ -1643,12 +1637,10 @@
       <c r="G23" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="67" t="s">
-        <v>121</v>
-      </c>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -2272,11 +2264,11 @@
       <c r="E51" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="64" t="s">
         <v>79</v>
       </c>
       <c r="G51" s="52"/>
-      <c r="H51" s="66"/>
+      <c r="H51" s="65"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -2798,27 +2790,27 @@
       <c r="G74" s="50"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
+    <row r="75" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="61"/>
-      <c r="H75" s="63" t="s">
+      <c r="B75" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="60"/>
+      <c r="H75" s="62" t="s">
         <v>107</v>
       </c>
     </row>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$241</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="123">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -390,6 +390,14 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>Inexistent Attributes in 'etalon' files
+  --  xlsx_type:xlsx_none
+ --  url:</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -664,7 +672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -842,6 +850,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1125,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,9 +1155,10 @@
     <col min="6" max="6" width="21" style="32" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -1168,8 +1183,11 @@
       <c r="H1" s="29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -1189,7 +1207,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1209,7 +1227,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1229,7 +1247,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1249,7 +1267,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1269,7 +1287,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1289,7 +1307,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1309,7 +1327,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1329,7 +1347,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1349,7 +1367,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1369,7 +1387,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1389,7 +1407,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1411,7 +1429,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1451,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1473,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1684,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -1679,62 +1697,43 @@
       <c r="D25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>79</v>
+      <c r="E25" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="50"/>
+      <c r="G25" s="67" t="s">
+        <v>120</v>
+      </c>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="I25" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="50"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="50"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>11</v>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>78</v>
@@ -1756,7 +1755,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
@@ -1776,237 +1775,237 @@
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="27" t="s">
+      <c r="B32" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="B33" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="28" t="s">
+      <c r="B34" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="B35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="50"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="50" t="s">
+      <c r="B36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="B37" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>78</v>
@@ -2026,64 +2025,64 @@
       <c r="G40" s="50"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="50"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="B43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F43" s="34" t="s">
@@ -2092,9 +2091,9 @@
       <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>63</v>
+    <row r="44" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
@@ -2108,15 +2107,15 @@
       <c r="E44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="50"/>
+      <c r="F44" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="26"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>64</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
@@ -2136,9 +2135,9 @@
       <c r="G45" s="50"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>78</v>
@@ -2152,15 +2151,15 @@
       <c r="E46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="26"/>
+      <c r="F46" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="50"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>65</v>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>78</v>
@@ -2180,33 +2179,31 @@
       <c r="G47" s="50"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>79</v>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>66</v>
+      <c r="E48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>78</v>
@@ -2227,52 +2224,54 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>78</v>
+      <c r="A50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="50"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="65"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -2289,36 +2288,34 @@
       <c r="F52" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="G52" s="50"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="8"/>
+    <row r="53" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="52"/>
+      <c r="H53" s="65"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>78</v>
@@ -2335,36 +2332,36 @@
       <c r="F54" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="50"/>
+      <c r="G54" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>79</v>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>79</v>
+      <c r="E55" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G55" s="50"/>
-      <c r="H55" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>78</v>
@@ -2381,14 +2378,12 @@
       <c r="F56" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="G56" s="50"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>74</v>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>78</v>
@@ -2406,11 +2401,13 @@
         <v>79</v>
       </c>
       <c r="G57" s="50"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="28" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>78</v>
@@ -2432,69 +2429,67 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="C61" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>79</v>
+      <c r="E61" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>79</v>
@@ -2502,23 +2497,25 @@
       <c r="G61" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>78</v>
+      <c r="A62" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>78</v>
+      <c r="E62" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>79</v>
@@ -2526,9 +2523,9 @@
       <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>0</v>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -2539,18 +2536,20 @@
       <c r="D63" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>78</v>
+      <c r="E63" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="50"/>
+      <c r="G63" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -2572,7 +2571,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
@@ -2586,15 +2585,15 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="36" t="s">
-        <v>102</v>
+      <c r="F65" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G65" s="50"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
@@ -2614,9 +2613,9 @@
       <c r="G66" s="50"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>4</v>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -2631,14 +2630,14 @@
         <v>78</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="26"/>
+        <v>102</v>
+      </c>
+      <c r="G67" s="50"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -2658,9 +2657,9 @@
       <c r="G68" s="50"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>6</v>
+    <row r="69" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>78</v>
@@ -2674,15 +2673,15 @@
       <c r="E69" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="50"/>
+      <c r="F69" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="26"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -2702,9 +2701,9 @@
       <c r="G70" s="50"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>9</v>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -2724,9 +2723,9 @@
       <c r="G71" s="50"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>37</v>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -2746,9 +2745,9 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>10</v>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -2768,9 +2767,9 @@
       <c r="G73" s="50"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>38</v>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>78</v>
@@ -2790,33 +2789,31 @@
       <c r="G74" s="50"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="60"/>
-      <c r="H75" s="62" t="s">
-        <v>107</v>
-      </c>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="50"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -2833,38 +2830,36 @@
       <c r="F76" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="8"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="60"/>
+      <c r="H77" s="62" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -2881,12 +2876,16 @@
       <c r="F78" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="50"/>
-      <c r="H78" s="8"/>
+      <c r="G78" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -2908,7 +2907,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>78</v>
@@ -2928,9 +2927,9 @@
       <c r="G80" s="50"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>56</v>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -2952,7 +2951,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -2972,9 +2971,9 @@
       <c r="G82" s="50"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>59</v>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -2994,31 +2993,31 @@
       <c r="G83" s="50"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="53"/>
-      <c r="H84" s="49"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>15</v>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="50"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -3038,31 +3037,31 @@
       <c r="G85" s="50"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>18</v>
+    <row r="86" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="53"/>
+      <c r="H86" s="49"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -3084,7 +3083,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>78</v>
@@ -3098,107 +3097,107 @@
       <c r="E88" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="36" t="s">
-        <v>103</v>
+      <c r="F88" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G88" s="50"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="50"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="50"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="52"/>
-      <c r="H89" s="27" t="s">
+      <c r="B91" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="52"/>
+      <c r="H91" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="52"/>
-      <c r="H90" s="27" t="s">
+      <c r="B92" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="52"/>
+      <c r="H92" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="50"/>
-      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>78</v>
@@ -3218,9 +3217,9 @@
       <c r="G93" s="50"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>26</v>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>78</v>
@@ -3240,596 +3239,640 @@
       <c r="G94" s="50"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="40" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F95" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="50"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96" s="50"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="48"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="48"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
+    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
+    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
+    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
+    <row r="238" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H239">
+  <autoFilter ref="A1:H241">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$239</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="125">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -365,9 +365,6 @@
     <t>GEO_NONE_GEO_SELECTOR</t>
   </si>
   <si>
-    <t>Remplace GEO_NONE_GEO_SELECTOR</t>
-  </si>
-  <si>
     <t>ATTRIBUTE_MANAGER</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
   </si>
   <si>
     <t>Oui mais OK</t>
-  </si>
-  <si>
-    <t>Benoît / David</t>
   </si>
   <si>
     <t>David</t>
@@ -398,6 +392,19 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Inexistent</t>
+  </si>
+  <si>
+    <t>Obsolète</t>
+  </si>
+  <si>
+    <t>Révisé par</t>
+  </si>
+  <si>
+    <t>Inexistent Attribute in 'etalon' files
+  --  xlsx_type:xlsx_none</t>
   </si>
 </sst>
 </file>
@@ -541,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -672,7 +685,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -856,6 +869,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1139,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1173,7 @@
     <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -1184,10 +1199,13 @@
         <v>98</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -1207,7 +1225,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1227,7 +1245,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1247,7 +1265,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1267,7 +1285,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1287,7 +1305,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1307,7 +1325,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1327,7 +1345,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1347,7 +1365,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1367,7 +1385,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1387,7 +1405,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1407,7 +1425,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1447,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1451,8 +1469,8 @@
       <c r="G14" s="31"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1472,8 +1490,11 @@
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1493,11 +1514,14 @@
         <v>79</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1543,7 @@
       <c r="G17" s="50"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1565,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1587,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1583,11 +1607,14 @@
         <v>79</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1604,36 +1631,39 @@
         <v>78</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="62" t="s">
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -1655,12 +1685,13 @@
       <c r="G23" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="57" t="s">
-        <v>112</v>
-      </c>
+      <c r="H23" s="57"/>
       <c r="I23" s="66"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -1680,11 +1711,14 @@
         <v>79</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -1704,36 +1738,68 @@
         <v>79</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="50"/>
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>118</v>
+      </c>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="34"/>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="G27" s="50"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>42</v>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>78</v>
@@ -1744,18 +1810,21 @@
       <c r="D28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>79</v>
+      <c r="E28" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
@@ -1766,62 +1835,67 @@
       <c r="D29" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>79</v>
+      <c r="E29" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>78</v>
+      <c r="J29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>78</v>
+      <c r="G30" s="52"/>
+      <c r="H30" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>78</v>
@@ -1838,14 +1912,14 @@
       <c r="F32" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>48</v>
+      <c r="G32" s="50"/>
+      <c r="H32" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>78</v>
@@ -1856,42 +1930,44 @@
       <c r="D33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>79</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>79</v>
+      <c r="E34" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>50</v>
+      <c r="G34" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>78</v>
@@ -1902,88 +1978,84 @@
       <c r="D35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="50"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>78</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>78</v>
+      <c r="E36" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>79</v>
+      <c r="G36" s="52"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>79</v>
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>78</v>
@@ -1997,15 +2069,15 @@
       <c r="E39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="50"/>
+      <c r="F39" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="26"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>78</v>
@@ -2025,31 +2097,31 @@
       <c r="G40" s="50"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="26"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="50"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>78</v>
@@ -2063,26 +2135,26 @@
       <c r="E42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="50"/>
+      <c r="F42" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="26"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="22" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F43" s="34" t="s">
@@ -2091,9 +2163,9 @@
       <c r="G43" s="50"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>61</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
@@ -2107,15 +2179,15 @@
       <c r="E44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="26"/>
+      <c r="F44" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="50"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>62</v>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
@@ -2135,9 +2207,9 @@
       <c r="G45" s="50"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>78</v>
@@ -2151,15 +2223,15 @@
       <c r="E46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="50"/>
+      <c r="F46" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="26"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>64</v>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>78</v>
@@ -2178,32 +2250,37 @@
       </c>
       <c r="G47" s="50"/>
       <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>78</v>
+      <c r="I47" s="68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>65</v>
+      <c r="E48" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="52"/>
+      <c r="H48" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>78</v>
@@ -2224,54 +2301,52 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>79</v>
+      <c r="A50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="8"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="52"/>
+      <c r="H51" s="65"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -2288,34 +2363,36 @@
       <c r="F52" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="65"/>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>78</v>
@@ -2332,36 +2409,36 @@
       <c r="F54" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="G54" s="50"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>78</v>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>102</v>
+      <c r="E55" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="G55" s="50"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="28" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>78</v>
@@ -2378,12 +2455,14 @@
       <c r="F56" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="50"/>
+      <c r="G56" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>72</v>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>78</v>
@@ -2401,13 +2480,11 @@
         <v>79</v>
       </c>
       <c r="G57" s="50"/>
-      <c r="H57" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>78</v>
@@ -2429,58 +2506,60 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>79</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="22" t="s">
-        <v>79</v>
+      <c r="E59" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="8"/>
+      <c r="G59" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>78</v>
+      <c r="A60" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="G60" s="50"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>113</v>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>78</v>
@@ -2488,8 +2567,8 @@
       <c r="D61" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>78</v>
+      <c r="E61" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>79</v>
@@ -2497,25 +2576,23 @@
       <c r="G61" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>79</v>
+      <c r="A62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="22" t="s">
-        <v>79</v>
+      <c r="E62" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>79</v>
@@ -2523,9 +2600,9 @@
       <c r="G62" s="50"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>77</v>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -2536,20 +2613,18 @@
       <c r="D63" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>79</v>
+      <c r="E63" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="51" t="s">
-        <v>105</v>
-      </c>
+      <c r="G63" s="50"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -2571,7 +2646,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
@@ -2585,15 +2660,15 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>79</v>
+      <c r="F65" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="G65" s="50"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
@@ -2613,9 +2688,9 @@
       <c r="G66" s="50"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>32</v>
+    <row r="67" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -2630,14 +2705,14 @@
         <v>78</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="G67" s="26"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -2657,9 +2732,9 @@
       <c r="G68" s="50"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>4</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>78</v>
@@ -2673,15 +2748,15 @@
       <c r="E69" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="26"/>
+      <c r="F69" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="50"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -2701,9 +2776,9 @@
       <c r="G70" s="50"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>6</v>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -2723,9 +2798,9 @@
       <c r="G71" s="50"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>8</v>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -2745,9 +2820,9 @@
       <c r="G72" s="50"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>9</v>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -2767,9 +2842,9 @@
       <c r="G73" s="50"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>37</v>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>78</v>
@@ -2789,31 +2864,33 @@
       <c r="G74" s="50"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="8"/>
+    <row r="75" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="60"/>
+      <c r="H75" s="62" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -2830,36 +2907,38 @@
       <c r="F76" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="60"/>
-      <c r="H77" s="62" t="s">
-        <v>107</v>
-      </c>
+      <c r="G76" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="50"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -2876,16 +2955,12 @@
       <c r="F78" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="G78" s="50"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -2907,7 +2982,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>78</v>
@@ -2927,9 +3002,9 @@
       <c r="G80" s="50"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>46</v>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -2951,7 +3026,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -2971,9 +3046,9 @@
       <c r="G82" s="50"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>56</v>
+    <row r="83" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -2993,31 +3068,31 @@
       <c r="G83" s="50"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>59</v>
+    <row r="84" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="53"/>
+      <c r="H84" s="49"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -3037,31 +3112,31 @@
       <c r="G85" s="50"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="53"/>
-      <c r="H86" s="49"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>15</v>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -3083,7 +3158,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>78</v>
@@ -3097,107 +3172,107 @@
       <c r="E88" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="34" t="s">
-        <v>79</v>
+      <c r="F88" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="G88" s="50"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>78</v>
+      <c r="A89" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="25" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="50"/>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>78</v>
+      <c r="G89" s="52"/>
+      <c r="H89" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" s="50"/>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>79</v>
+      <c r="E90" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="52"/>
+      <c r="H90" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F91" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>79</v>
+      <c r="G91" s="50"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F92" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="52"/>
-      <c r="H92" s="27" t="s">
-        <v>89</v>
-      </c>
+      <c r="G92" s="50"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>78</v>
@@ -3217,9 +3292,9 @@
       <c r="G93" s="50"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>68</v>
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>78</v>
@@ -3239,640 +3314,596 @@
       <c r="G94" s="50"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" s="50"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+    <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="48"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="48"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H241">
+  <autoFilter ref="A1:H239">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="133">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Obsolète</t>
   </si>
   <si>
-    <t>Révisé par</t>
-  </si>
-  <si>
     <t>Inexistent Attribute in 'etalon' files
   --  xlsx_type:xlsx_none</t>
   </si>
@@ -422,7 +419,16 @@
     <t>Les codes de replacement '%7B et %7D ne se font pas convertir en charactères souhaités. À la place, Ils restent literales: '%7B' et '%7D' dans le string.</t>
   </si>
   <si>
-    <t>Resources{}.url avec des mayuscules/minuscules mismatchs</t>
+    <t>Resources{}.url avec des mayuscules/minuscules mismatchs; https/http mismatch</t>
+  </si>
+  <si>
+    <t>Benoît / David</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>Daniel / David</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XEZ240"/>
+  <dimension ref="A1:XEY240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,10 +1227,9 @@
     <col min="7" max="7" width="20.5703125" style="54" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" customWidth="1"/>
     <col min="9" max="9" width="38.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -1252,11 +1257,8 @@
       <c r="I1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -1276,7 +1278,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1296,7 +1298,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1316,7 +1318,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1336,7 +1338,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1356,7 +1358,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1376,7 +1378,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1396,7 +1398,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1416,7 +1418,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1436,7 +1438,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1456,7 +1458,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1476,7 +1478,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1500,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1522,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1565,15 +1567,12 @@
         <v>79</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1594,7 @@
       <c r="G17" s="49"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1616,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1636,17 +1635,16 @@
       <c r="F19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="49" t="s">
+        <v>131</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1656,11 +1654,11 @@
       <c r="G20" s="49"/>
       <c r="H20" s="8"/>
       <c r="I20" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1679,14 +1677,13 @@
       <c r="F21" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H21" s="8"/>
-      <c r="J21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" s="63"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -1708,7 +1705,7 @@
       <c r="G22" s="49"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>111</v>
       </c>
@@ -1755,16 +1752,13 @@
         <v>79</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H24" s="56"/>
       <c r="I24" s="60"/>
-      <c r="J24" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="65"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J24" s="65"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -1783,14 +1777,13 @@
       <c r="F25" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H25" s="8"/>
-      <c r="J25" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="63"/>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1809,17 +1802,16 @@
       <c r="F26" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="61" t="s">
+        <v>118</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="63"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1838,14 +1830,13 @@
       <c r="F27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H27" s="8"/>
-      <c r="J27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" s="66"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="66"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -1864,16 +1855,15 @@
       <c r="F28" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1892,14 +1882,13 @@
       <c r="F29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H29" s="8"/>
-      <c r="J29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="66"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="66"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -1918,14 +1907,13 @@
       <c r="F30" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H30" s="8"/>
-      <c r="J30" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="66"/>
-    </row>
-    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="J30" s="66"/>
+    </row>
+    <row r="31" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -1952,7 +1940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>48</v>
       </c>
@@ -1974,7 +1962,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -2001,7 +1989,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>50</v>
       </c>
@@ -2028,7 +2016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>114</v>
       </c>
@@ -2054,7 +2042,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>51</v>
       </c>
@@ -2076,7 +2064,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>52</v>
       </c>
@@ -2098,7 +2086,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
@@ -2120,7 +2108,7 @@
       <c r="G38" s="49"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>54</v>
       </c>
@@ -2142,7 +2130,7 @@
       <c r="G39" s="49"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -2164,7 +2152,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2174,7 @@
       <c r="G41" s="49"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>57</v>
       </c>
@@ -2208,7 +2196,7 @@
       <c r="G42" s="49"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -2230,7 +2218,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>62</v>
       </c>
@@ -2252,7 +2240,7 @@
       <c r="G44" s="49"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>63</v>
       </c>
@@ -2274,7 +2262,7 @@
       <c r="G45" s="49"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>64</v>
       </c>
@@ -2296,7 +2284,7 @@
       <c r="G46" s="49"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
@@ -2318,7 +2306,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -2337,17 +2325,16 @@
       <c r="F48" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="49"/>
+      <c r="G48" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="J48" t="s">
-        <v>118</v>
-      </c>
-      <c r="K48" s="67"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="J48" s="67"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>21</v>
       </c>
@@ -2374,7 +2361,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2396,7 +2383,7 @@
       <c r="G50" s="49"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +2405,7 @@
       <c r="G51" s="49"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>67</v>
       </c>
@@ -2440,7 +2427,7 @@
       <c r="G52" s="51"/>
       <c r="H52" s="59"/>
     </row>
-    <row r="53" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -2453,25 +2440,22 @@
       <c r="D53" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="70" t="s">
-        <v>79</v>
+      <c r="E53" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>79</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="J53" t="s">
-        <v>118</v>
-      </c>
-      <c r="K53" s="73"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="J53" s="73"/>
+    </row>
+    <row r="54" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2484,19 +2468,22 @@
       <c r="D54" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="70" t="s">
-        <v>79</v>
+      <c r="E54" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F54" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="49"/>
+      <c r="G54" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H54" s="8"/>
-      <c r="I54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" s="73"/>
+    </row>
+    <row r="55" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>25</v>
       </c>
@@ -2515,17 +2502,16 @@
       <c r="F55" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="49"/>
+      <c r="G55" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="J55" t="s">
-        <v>118</v>
-      </c>
-      <c r="K55" s="67"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="J55" s="67"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>72</v>
       </c>
@@ -2552,7 +2538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
@@ -2576,7 +2562,7 @@
       </c>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>74</v>
       </c>
@@ -2598,7 +2584,7 @@
       <c r="G58" s="49"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -2622,7 +2608,7 @@
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>112</v>
       </c>
@@ -2648,7 +2634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>76</v>
       </c>
@@ -2670,7 +2656,7 @@
       <c r="G61" s="49"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>77</v>
       </c>
@@ -2694,7 +2680,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -2716,7 +2702,7 @@
       <c r="G63" s="49"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2724,7 @@
       <c r="G64" s="49"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +2746,7 @@
       <c r="G65" s="49"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
@@ -2782,7 +2768,7 @@
       <c r="G66" s="49"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>3</v>
       </c>
@@ -2804,7 +2790,7 @@
       <c r="G67" s="49"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:16380" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16379" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>4</v>
       </c>
@@ -2826,7 +2812,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>5</v>
       </c>
@@ -2848,7 +2834,7 @@
       <c r="G69" s="49"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2856,7 @@
       <c r="G70" s="49"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2892,7 +2878,7 @@
       <c r="G71" s="49"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:16380" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>9</v>
       </c>
@@ -2914,7 +2900,7 @@
       <c r="G72" s="49"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:16380" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>37</v>
       </c>
@@ -2936,7 +2922,7 @@
       <c r="G73" s="49"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
@@ -2958,7 +2944,7 @@
       <c r="G74" s="49"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +2966,7 @@
       <c r="G75" s="49"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:16380" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16379" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>40</v>
       </c>
@@ -19374,9 +19360,8 @@
       <c r="XEW76"/>
       <c r="XEX76"/>
       <c r="XEY76"/>
-      <c r="XEZ76"/>
-    </row>
-    <row r="77" spans="1:16380" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>106</v>
       </c>
@@ -19402,7 +19387,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:16380" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>12</v>
       </c>
@@ -19424,7 +19409,7 @@
       <c r="G78" s="49"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:16380" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16379" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
@@ -19446,7 +19431,7 @@
       <c r="G79" s="49"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:16380" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>46</v>
       </c>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -572,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,31 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -901,27 +883,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1210,26 +1188,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XEY240"/>
+  <dimension ref="A1:XEX240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21" style="31" customWidth="1"/>
+    <col min="6" max="6" width="21" style="31" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -1258,7 +1236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -1278,7 +1256,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1298,7 +1276,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -1318,7 +1296,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1338,7 +1316,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1358,7 +1336,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1378,7 +1356,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1398,7 +1376,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1418,7 +1396,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1438,7 +1416,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1458,7 +1436,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1478,7 +1456,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1478,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1522,7 +1500,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1513,7 @@
       <c r="D15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="67" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -1547,7 +1525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1570,9 +1548,8 @@
         <v>130</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1571,7 @@
       <c r="G17" s="49"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1593,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1639,12 +1616,11 @@
         <v>131</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="68" t="s">
+      <c r="I19" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="67"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1653,12 +1629,11 @@
       <c r="F20" s="33"/>
       <c r="G20" s="49"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="67"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1681,9 +1656,8 @@
         <v>118</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="J21" s="63"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1679,7 @@
       <c r="G22" s="49"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1692,7 @@
       <c r="D23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="67" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="33" t="s">
@@ -1732,7 +1706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>111</v>
       </c>
@@ -1756,9 +1730,8 @@
       </c>
       <c r="H24" s="56"/>
       <c r="I24" s="60"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -1781,9 +1754,8 @@
         <v>118</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1809,9 +1781,8 @@
       <c r="I26" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="63"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1834,9 +1805,8 @@
         <v>118</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="J27" s="66"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -1863,7 +1833,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1886,9 +1856,8 @@
         <v>118</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="J29" s="66"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -1911,9 +1880,8 @@
         <v>118</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="J30" s="66"/>
-    </row>
-    <row r="31" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -1926,7 +1894,7 @@
       <c r="D31" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="33" t="s">
@@ -1940,7 +1908,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +1921,7 @@
       <c r="D32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="33" t="s">
@@ -1962,7 +1930,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -1975,7 +1943,7 @@
       <c r="D33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="33" t="s">
@@ -1989,7 +1957,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>50</v>
       </c>
@@ -2002,7 +1970,7 @@
       <c r="D34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="67" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="33" t="s">
@@ -2016,7 +1984,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>114</v>
       </c>
@@ -2042,7 +2010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +2023,7 @@
       <c r="D36" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F36" s="33" t="s">
@@ -2064,7 +2032,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>52</v>
       </c>
@@ -2077,7 +2045,7 @@
       <c r="D37" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="33" t="s">
@@ -2086,7 +2054,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
@@ -2108,7 +2076,7 @@
       <c r="G38" s="49"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:10" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>54</v>
       </c>
@@ -2130,7 +2098,7 @@
       <c r="G39" s="49"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -2152,7 +2120,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2142,7 @@
       <c r="G41" s="49"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +2155,7 @@
       <c r="D42" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="69" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="33" t="s">
@@ -2196,7 +2164,7 @@
       <c r="G42" s="49"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2186,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>62</v>
       </c>
@@ -2240,7 +2208,7 @@
       <c r="G44" s="49"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>63</v>
       </c>
@@ -2262,7 +2230,7 @@
       <c r="G45" s="49"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>64</v>
       </c>
@@ -2284,7 +2252,7 @@
       <c r="G46" s="49"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2274,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -2332,9 +2300,8 @@
       <c r="I48" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="67"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>21</v>
       </c>
@@ -2347,7 +2314,7 @@
       <c r="D49" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F49" s="33" t="s">
@@ -2361,7 +2328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2350,7 @@
       <c r="G50" s="49"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
@@ -2405,7 +2372,7 @@
       <c r="G51" s="49"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>67</v>
       </c>
@@ -2418,7 +2385,7 @@
       <c r="D52" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F52" s="58" t="s">
@@ -2427,7 +2394,7 @@
       <c r="G52" s="51"/>
       <c r="H52" s="59"/>
     </row>
-    <row r="53" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -2450,12 +2417,11 @@
         <v>130</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53" s="69" t="s">
+      <c r="I53" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="73"/>
-    </row>
-    <row r="54" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2478,12 +2444,11 @@
         <v>118</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="69" t="s">
+      <c r="I54" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="J54" s="73"/>
-    </row>
-    <row r="55" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>25</v>
       </c>
@@ -2506,12 +2471,11 @@
         <v>118</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="68" t="s">
+      <c r="I55" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="J55" s="67"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>72</v>
       </c>
@@ -2524,7 +2488,7 @@
       <c r="D56" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="71" t="s">
+      <c r="E56" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F56" s="33" t="s">
@@ -2538,7 +2502,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
@@ -2562,7 +2526,7 @@
       </c>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>74</v>
       </c>
@@ -2575,7 +2539,7 @@
       <c r="D58" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="71" t="s">
+      <c r="E58" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F58" s="33" t="s">
@@ -2584,7 +2548,7 @@
       <c r="G58" s="49"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -2608,7 +2572,7 @@
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>112</v>
       </c>
@@ -2634,7 +2598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>76</v>
       </c>
@@ -2647,7 +2611,7 @@
       <c r="D61" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="68" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="33" t="s">
@@ -2656,7 +2620,7 @@
       <c r="G61" s="49"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>77</v>
       </c>
@@ -2680,7 +2644,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -2702,7 +2666,7 @@
       <c r="G63" s="49"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2688,7 @@
       <c r="G64" s="49"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2710,7 @@
       <c r="G65" s="49"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
@@ -2768,7 +2732,7 @@
       <c r="G66" s="49"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +2754,7 @@
       <c r="G67" s="49"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:16379" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16378" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2776,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +2798,7 @@
       <c r="G69" s="49"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2820,7 @@
       <c r="G70" s="49"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2842,7 @@
       <c r="G71" s="49"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>9</v>
       </c>
@@ -2900,7 +2864,7 @@
       <c r="G72" s="49"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>37</v>
       </c>
@@ -2922,7 +2886,7 @@
       <c r="G73" s="49"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +2908,7 @@
       <c r="G74" s="49"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>38</v>
       </c>
@@ -2966,7 +2930,7 @@
       <c r="G75" s="49"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:16379" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16378" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>40</v>
       </c>
@@ -19359,9 +19323,8 @@
       <c r="XEV76"/>
       <c r="XEW76"/>
       <c r="XEX76"/>
-      <c r="XEY76"/>
-    </row>
-    <row r="77" spans="1:16379" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>106</v>
       </c>
@@ -19387,7 +19350,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>12</v>
       </c>
@@ -19409,7 +19372,7 @@
       <c r="G78" s="49"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:16379" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16378" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
@@ -19431,7 +19394,7 @@
       <c r="G79" s="49"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:16379" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>46</v>
       </c>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$176</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="161">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -362,9 +362,6 @@
     <t>Remplacer par GEO_NONE_GEO_SELECTOR</t>
   </si>
   <si>
-    <t>GEO_NONE_GEO_SELECTOR</t>
-  </si>
-  <si>
     <t>ATTRIBUTE_MANAGER</t>
   </si>
   <si>
@@ -429,6 +426,106 @@
   </si>
   <si>
     <t>Daniel / David</t>
+  </si>
+  <si>
+    <t>etalon: _element_count</t>
+  </si>
+  <si>
+    <t>Les resultats sont trop diversés de l'étalon</t>
+  </si>
+  <si>
+    <t>etalon: _element_count Plusieur_attributes_value sont  &lt;null&gt;</t>
+  </si>
+  <si>
+    <t>xlsx_type:xlsx_none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inexistent Attributes in 'etalon' file 
+ -- _list{} 
+--  xlsx_type:xlsx_none
+Inexistent attributes in results file
+-- TBS_topic
+-- TBS_subject
+</t>
+  </si>
+  <si>
+    <t>ceci marche tout de debut.</t>
+  </si>
+  <si>
+    <t>AB_GEODISCOVER_RESOURCE_EXTRACTOR.fmx</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_MANAGER_NG.fmx</t>
+  </si>
+  <si>
+    <t>BC_RESOURCE_NAME_CORRECTION.fmx</t>
+  </si>
+  <si>
+    <t>DCAT_Reader.fmx</t>
+  </si>
+  <si>
+    <t>EXTRACT_COLLECTION_START_END_DATE.fmx</t>
+  </si>
+  <si>
+    <t>ON_CKAN_CONTACT_FORM_EXTRACTOR.fmx</t>
+  </si>
+  <si>
+    <t>ON_GEOHUB_RESOURCE_EXTRACTOR.fmx</t>
+  </si>
+  <si>
+    <t>QC_PROJECTION_GEOEXTENTS_EXTRACTOR.fmx</t>
+  </si>
+  <si>
+    <t>REMOVE_BROKEN_URL_WMS_ESRI_REST.fmx</t>
+  </si>
+  <si>
+    <t>RESOURCE_NAME_GEO.fmx</t>
+  </si>
+  <si>
+    <t>plusieurs differences. A vérifier</t>
+  </si>
+  <si>
+    <t>19 ok; 2 completement diffferents</t>
+  </si>
+  <si>
+    <t>plusieurs differences dans 26/610 features</t>
+  </si>
+  <si>
+    <t>Diffs dans distributionList{} et resources{}
+Resultat_2: 1 feature de trop</t>
+  </si>
+  <si>
+    <t>Autres Unit Tests dans le repertoire</t>
+  </si>
+  <si>
+    <t>Fgeoport</t>
+  </si>
+  <si>
+    <t>GEO_NONE_GEO_SELECTOR.fmx</t>
+  </si>
+  <si>
+    <t>Inexistent Attribute in 'etalon' files
+  --  xlsx_type:xlsx_none
+ Inexistent attributes in 'results' file
+ --  resources{}.xlsx_type:xlsx_none</t>
+  </si>
+  <si>
+    <t>TO follow</t>
+  </si>
+  <si>
+    <t>QC_ATTRIBUTE_MAPPER.fmx</t>
+  </si>
+  <si>
+    <t>Plusieurs attributes inexistents dans 'etalon':
+ -- xlsx_type
+ -- list{}
+Plusieurs attributes TBS_ inexistents dans 'resultat'.</t>
+  </si>
+  <si>
+    <t>Plusieurs values diff dans resources{}</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -572,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +708,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +824,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -744,9 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +1005,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1188,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XEX240"/>
+  <dimension ref="A1:XEX176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,39 +1314,39 @@
     <col min="3" max="3" width="32.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21" style="31" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="21" style="30" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="53" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>120</v>
+      <c r="I1" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1243,17 +1356,17 @@
       <c r="B2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1263,17 +1376,17 @@
       <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1283,17 +1396,17 @@
       <c r="B4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1303,17 +1416,17 @@
       <c r="B5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1323,17 +1436,17 @@
       <c r="B6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1343,17 +1456,17 @@
       <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1363,17 +1476,17 @@
       <c r="B8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="30"/>
+      <c r="F8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="29"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1383,17 +1496,17 @@
       <c r="B9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="30"/>
+      <c r="F9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="29"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1403,17 +1516,17 @@
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1423,17 +1536,17 @@
       <c r="B11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="F11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="29"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1443,17 +1556,17 @@
       <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="30"/>
+      <c r="F12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="29"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1466,16 +1579,16 @@
       <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -1488,20 +1601,20 @@
       <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="30"/>
+      <c r="F14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="29"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1510,19 +1623,19 @@
       <c r="C15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="63" t="s">
-        <v>121</v>
+      <c r="I15" s="62" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1535,17 +1648,17 @@
       <c r="C16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>130</v>
+      <c r="G16" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -1559,17 +1672,20 @@
       <c r="C17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="8"/>
+      <c r="I17" s="62" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1581,16 +1697,16 @@
       <c r="C18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,34 +1719,34 @@
       <c r="C19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="49" t="s">
-        <v>131</v>
+      <c r="G19" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="65" t="s">
-        <v>125</v>
+      <c r="I19" s="64" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="49"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="65" t="s">
-        <v>126</v>
+      <c r="I20" s="64" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1643,17 +1759,17 @@
       <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>118</v>
+      <c r="G21" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -1667,20 +1783,20 @@
       <c r="C22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="49"/>
+      <c r="F22" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="48"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1689,26 +1805,26 @@
       <c r="C23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="56" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="64" t="s">
-        <v>122</v>
+      <c r="I23" s="63" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>78</v>
@@ -1716,20 +1832,20 @@
       <c r="C24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="60"/>
+      <c r="G24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -1741,17 +1857,17 @@
       <c r="C25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="49" t="s">
-        <v>118</v>
+      <c r="G25" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -1765,21 +1881,21 @@
       <c r="C26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="61" t="s">
         <v>118</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1792,19 +1908,22 @@
       <c r="C27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>118</v>
+      <c r="G27" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H27" s="8"/>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1816,21 +1935,21 @@
       <c r="C28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>118</v>
+      <c r="G28" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1843,19 +1962,22 @@
       <c r="C29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="49" t="s">
-        <v>118</v>
+      <c r="G29" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H29" s="8"/>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1867,194 +1989,197 @@
       <c r="C30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="49" t="s">
-        <v>118</v>
+      <c r="G30" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H30" s="8"/>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="50"/>
+      <c r="H31" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="64" t="s">
-        <v>122</v>
+      <c r="I31" s="63" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="27" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="64" t="s">
-        <v>122</v>
+      <c r="I33" s="63" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="49"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="64" t="s">
-        <v>122</v>
+      <c r="H35" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="18" t="s">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="33" t="s">
+      <c r="E36" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="F36" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="51"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="51"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
@@ -2064,19 +2189,25 @@
       <c r="C38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="49"/>
+      <c r="G38" s="48" t="s">
+        <v>117</v>
+      </c>
       <c r="H38" s="8"/>
+      <c r="I38" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="69"/>
     </row>
-    <row r="39" spans="1:9" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>54</v>
       </c>
@@ -2086,19 +2217,23 @@
       <c r="C39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="8"/>
+      <c r="I39" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="69"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -2108,19 +2243,19 @@
       <c r="C40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="25"/>
+      <c r="F40" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="24"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>14</v>
       </c>
@@ -2130,41 +2265,47 @@
       <c r="C41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="49"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="8"/>
+      <c r="I41" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="38" t="s">
+      <c r="B42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="49"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -2174,19 +2315,19 @@
       <c r="C43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="25"/>
+      <c r="F43" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="24"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>62</v>
       </c>
@@ -2196,19 +2337,23 @@
       <c r="C44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="49"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="8"/>
+      <c r="I44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="69"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>63</v>
       </c>
@@ -2218,19 +2363,24 @@
       <c r="C45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="49"/>
+      <c r="G45" s="48" t="s">
+        <v>117</v>
+      </c>
       <c r="H45" s="8"/>
+      <c r="I45" s="65" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>64</v>
       </c>
@@ -2240,19 +2390,24 @@
       <c r="C46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="49"/>
+      <c r="G46" s="48" t="s">
+        <v>117</v>
+      </c>
       <c r="H46" s="8"/>
+      <c r="I46" s="61" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
@@ -2262,19 +2417,19 @@
       <c r="C47" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="25"/>
+      <c r="F47" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -2284,51 +2439,51 @@
       <c r="C48" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="49" t="s">
-        <v>118</v>
+      <c r="G48" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="62" t="s">
-        <v>123</v>
+      <c r="I48" s="61" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="E49" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="27" t="s">
+      <c r="G49" s="50"/>
+      <c r="H49" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="64" t="s">
-        <v>122</v>
+      <c r="I49" s="63" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2338,19 +2493,19 @@
       <c r="C50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="49"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
@@ -2360,41 +2515,46 @@
       <c r="C51" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="49"/>
+      <c r="G51" s="48" t="s">
+        <v>117</v>
+      </c>
       <c r="H51" s="8"/>
+      <c r="I51" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="68" t="s">
+      <c r="E52" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="59"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="58"/>
     </row>
-    <row r="53" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>69</v>
       </c>
@@ -2404,24 +2564,24 @@
       <c r="C53" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>130</v>
+      <c r="F53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53" s="66" t="s">
-        <v>128</v>
+      <c r="I53" s="65" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2431,24 +2591,24 @@
       <c r="C54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="49" t="s">
-        <v>118</v>
+      <c r="G54" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="66" t="s">
-        <v>129</v>
+      <c r="I54" s="65" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>25</v>
       </c>
@@ -2458,51 +2618,51 @@
       <c r="C55" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="49" t="s">
-        <v>118</v>
+      <c r="G55" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="65" t="s">
-        <v>124</v>
+      <c r="I55" s="64" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="68" t="s">
+      <c r="E56" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="27" t="s">
+      <c r="G56" s="48"/>
+      <c r="H56" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="64" t="s">
-        <v>122</v>
+      <c r="I56" s="63" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
@@ -2512,43 +2672,47 @@
       <c r="C57" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="50" t="s">
+      <c r="G57" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H57" s="8"/>
+      <c r="I57" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="69"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="68" t="s">
+      <c r="E58" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="49"/>
+      <c r="G58" s="48"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -2558,69 +2722,73 @@
       <c r="C59" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="G59" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" s="69"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="68" t="s">
+      <c r="E61" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="49"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>77</v>
       </c>
@@ -2630,21 +2798,25 @@
       <c r="C62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="50" t="s">
+      <c r="G62" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H62" s="8"/>
+      <c r="I62" t="s">
+        <v>137</v>
+      </c>
+      <c r="J62" s="69"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -2654,19 +2826,19 @@
       <c r="C63" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="33" t="s">
+      <c r="E63" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="49"/>
+      <c r="G63" s="48"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
@@ -2676,16 +2848,16 @@
       <c r="C64" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="49"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2698,16 +2870,16 @@
       <c r="C65" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="49"/>
+      <c r="G65" s="48"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2720,16 +2892,16 @@
       <c r="C66" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="49"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2742,16 +2914,16 @@
       <c r="C67" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="49"/>
+      <c r="G67" s="48"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:16378" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -2764,16 +2936,16 @@
       <c r="C68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="25"/>
+      <c r="F68" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="24"/>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2786,16 +2958,16 @@
       <c r="C69" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="49"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2808,16 +2980,16 @@
       <c r="C70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="49"/>
+      <c r="G70" s="48"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2830,16 +3002,16 @@
       <c r="C71" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="49"/>
+      <c r="G71" s="48"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
@@ -2852,16 +3024,16 @@
       <c r="C72" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G72" s="49"/>
+      <c r="G72" s="48"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
@@ -2874,16 +3046,16 @@
       <c r="C73" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="49"/>
+      <c r="G73" s="48"/>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2896,16 +3068,16 @@
       <c r="C74" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="49"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2918,19 +3090,19 @@
       <c r="C75" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G75" s="49"/>
+      <c r="G75" s="48"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:16378" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16378" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +3112,7 @@
       <c r="C76" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -19334,16 +19506,16 @@
       <c r="C77" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="49" t="s">
+      <c r="G77" s="48" t="s">
         <v>108</v>
       </c>
       <c r="H77" s="8" t="s">
@@ -19360,16 +19532,16 @@
       <c r="C78" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="49"/>
+      <c r="G78" s="48"/>
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:16378" x14ac:dyDescent="0.25">
@@ -19382,16 +19554,16 @@
       <c r="C79" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F79" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G79" s="49"/>
+      <c r="G79" s="48"/>
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
@@ -19404,19 +19576,19 @@
       <c r="C80" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="49"/>
+      <c r="G80" s="48"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>13</v>
       </c>
@@ -19426,19 +19598,19 @@
       <c r="C81" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="49"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>56</v>
       </c>
@@ -19448,19 +19620,19 @@
       <c r="C82" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="F82" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="49"/>
+      <c r="G82" s="48"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>58</v>
       </c>
@@ -19470,19 +19642,19 @@
       <c r="C83" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="49"/>
+      <c r="G83" s="48"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>59</v>
       </c>
@@ -19492,41 +19664,41 @@
       <c r="C84" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="49"/>
+      <c r="G84" s="48"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
+    <row r="85" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="44" t="s">
+      <c r="B85" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="46" t="s">
+      <c r="E85" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="48"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="47"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>15</v>
       </c>
@@ -19536,19 +19708,19 @@
       <c r="C86" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="F86" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="49"/>
+      <c r="G86" s="48"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>17</v>
       </c>
@@ -19558,19 +19730,19 @@
       <c r="C87" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="49"/>
+      <c r="G87" s="48"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
@@ -19580,19 +19752,19 @@
       <c r="C88" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G88" s="49"/>
+      <c r="G88" s="48"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>19</v>
       </c>
@@ -19602,67 +19774,67 @@
       <c r="C89" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="F89" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G89" s="49"/>
+      <c r="G89" s="48"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="33" t="s">
+      <c r="E90" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="51"/>
-      <c r="H90" s="26" t="s">
+      <c r="G90" s="50"/>
+      <c r="H90" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="33" t="s">
+      <c r="E91" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="51"/>
-      <c r="H91" s="26" t="s">
+      <c r="G91" s="50"/>
+      <c r="H91" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -19672,19 +19844,19 @@
       <c r="C92" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="F92" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="49"/>
+      <c r="G92" s="48"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>68</v>
       </c>
@@ -19694,19 +19866,19 @@
       <c r="C93" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="49"/>
+      <c r="G93" s="48"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>71</v>
       </c>
@@ -19716,19 +19888,19 @@
       <c r="C94" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F94" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="49"/>
+      <c r="G94" s="48"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>26</v>
       </c>
@@ -19738,608 +19910,479 @@
       <c r="C95" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" s="33" t="s">
+      <c r="E95" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G95" s="49"/>
+      <c r="F95" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="48"/>
       <c r="H95" s="8"/>
+      <c r="I95" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="96" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39" t="s">
+    <row r="96" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="46"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="G97" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="E98" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G98" s="53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="E99" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G99" s="53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="E100" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="E101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G102" s="53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="E103" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="E104" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="E105" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G105" s="53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="E106" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="E107" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I107" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="E111" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="E112" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="47"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="52"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H240">
+  <autoFilter ref="A1:H176">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="159">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -498,12 +498,6 @@
     <t>Autres Unit Tests dans le repertoire</t>
   </si>
   <si>
-    <t>Fgeoport</t>
-  </si>
-  <si>
-    <t>GEO_NONE_GEO_SELECTOR.fmx</t>
-  </si>
-  <si>
     <t>Inexistent Attribute in 'etalon' files
   --  xlsx_type:xlsx_none
  Inexistent attributes in 'results' file
@@ -511,9 +505,6 @@
   </si>
   <si>
     <t>TO follow</t>
-  </si>
-  <si>
-    <t>QC_ATTRIBUTE_MAPPER.fmx</t>
   </si>
   <si>
     <t>Plusieurs attributes inexistents dans 'etalon':
@@ -526,6 +517,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>GEO_NONE_GEO_SELECTOR</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:XEX176"/>
+  <dimension ref="A1:XEX174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="24" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>78</v>
@@ -2277,10 +2271,10 @@
       <c r="G41" s="48"/>
       <c r="H41" s="8"/>
       <c r="I41" s="61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J41" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,7 +2371,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2529,7 +2523,7 @@
       </c>
       <c r="H51" s="8"/>
       <c r="I51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -19922,7 +19916,7 @@
       <c r="G95" s="48"/>
       <c r="H95" s="8"/>
       <c r="I95" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19991,35 +19985,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G102" s="53" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="E102" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="E103" s="3">
-        <v>7</v>
+      <c r="E103" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2"/>
       <c r="E104" s="66" t="s">
@@ -20029,360 +20021,333 @@
         <v>117</v>
       </c>
       <c r="I104" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="59" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="E105" s="7" t="s">
-        <v>78</v>
+      <c r="E105" s="66" t="s">
+        <v>79</v>
       </c>
       <c r="G105" s="53" t="s">
         <v>117</v>
       </c>
+      <c r="I105" s="65" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="E106" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="I106" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="E106" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="59" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="E107" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="I107" s="65" t="s">
-        <v>151</v>
+      <c r="E107" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="B108" s="1"/>
       <c r="E108" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B109" s="1"/>
       <c r="E109" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B110" s="1"/>
       <c r="E110" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="E111" s="3">
-        <v>4</v>
-      </c>
+    <row r="111" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" s="40"/>
+      <c r="C111" s="52"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="59" t="s">
-        <v>90</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="E112" s="3">
-        <v>5</v>
-      </c>
     </row>
-    <row r="113" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="40"/>
-      <c r="C113" s="52"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H176">
+  <autoFilter ref="A1:H174">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="unitaire"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="159">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -940,9 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,8 +1294,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XEX174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="103" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1306,7 @@
     <col min="4" max="4" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="21" style="30" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="52" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" customWidth="1"/>
   </cols>
@@ -1620,7 +1617,7 @@
       <c r="D15" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="32" t="s">
@@ -1628,7 +1625,7 @@
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="61" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1651,7 +1648,7 @@
       <c r="F16" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="47" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="8"/>
@@ -1669,15 +1666,15 @@
       <c r="D17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="61" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1722,11 +1719,11 @@
       <c r="F19" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="47" t="s">
         <v>130</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="63" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1737,9 +1734,9 @@
       <c r="D20" s="17"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="48"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="63" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1762,7 +1759,7 @@
       <c r="F21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H21" s="8"/>
@@ -1786,10 +1783,10 @@
       <c r="F22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
@@ -1802,21 +1799,21 @@
       <c r="D23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="62" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>158</v>
       </c>
@@ -1838,8 +1835,8 @@
       <c r="G24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="59"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -1860,7 +1857,7 @@
       <c r="F25" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H25" s="8"/>
@@ -1884,11 +1881,11 @@
       <c r="F26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="59" t="s">
         <v>117</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="60" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1911,7 +1908,7 @@
       <c r="F27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H27" s="8"/>
@@ -1938,7 +1935,7 @@
       <c r="F28" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H28" s="8"/>
@@ -1965,7 +1962,7 @@
       <c r="F29" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H29" s="8"/>
@@ -1992,7 +1989,7 @@
       <c r="F30" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H30" s="8"/>
@@ -2013,17 +2010,17 @@
       <c r="D31" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="I31" s="62" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2040,13 +2037,13 @@
       <c r="D32" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,17 +2059,17 @@
       <c r="D33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="62" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2089,17 +2086,17 @@
       <c r="D34" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="48"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I34" s="63" t="s">
+      <c r="I34" s="62" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2122,7 +2119,7 @@
       <c r="F35" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="47" t="s">
         <v>114</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -2142,13 +2139,13 @@
       <c r="D36" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="50"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2164,13 +2161,13 @@
       <c r="D37" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="50"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2192,14 +2189,14 @@
       <c r="F38" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" t="s">
         <v>133</v>
       </c>
-      <c r="J38" s="69"/>
+      <c r="J38" s="68"/>
     </row>
     <row r="39" spans="1:10" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -2220,12 +2217,12 @@
       <c r="F39" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="65" t="s">
+      <c r="I39" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="J39" s="69"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -2268,12 +2265,12 @@
       <c r="F41" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="48"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="70" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2290,13 +2287,13 @@
       <c r="D42" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="67" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="48"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -2340,12 +2337,12 @@
       <c r="F44" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="48"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="8"/>
       <c r="I44" t="s">
         <v>135</v>
       </c>
-      <c r="J44" s="69"/>
+      <c r="J44" s="68"/>
     </row>
     <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2366,11 +2363,11 @@
       <c r="F45" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G45" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45" s="65" t="s">
+      <c r="I45" s="64" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2393,11 +2390,11 @@
       <c r="F46" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="61" t="s">
+      <c r="I46" s="60" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2442,11 +2439,11 @@
       <c r="F48" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="61" t="s">
+      <c r="I48" s="60" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2463,17 +2460,17 @@
       <c r="D49" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="63" t="s">
+      <c r="I49" s="62" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2496,7 +2493,7 @@
       <c r="F50" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="48"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2512,13 +2509,13 @@
       <c r="D51" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H51" s="8"/>
@@ -2539,14 +2536,14 @@
       <c r="D52" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="58"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="57"/>
     </row>
     <row r="53" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -2561,17 +2558,17 @@
       <c r="D53" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="47" t="s">
         <v>129</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53" s="65" t="s">
+      <c r="I53" s="64" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2594,11 +2591,11 @@
       <c r="F54" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="65" t="s">
+      <c r="I54" s="64" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2621,11 +2618,11 @@
       <c r="F55" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="48" t="s">
+      <c r="G55" s="47" t="s">
         <v>117</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="64" t="s">
+      <c r="I55" s="63" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2642,17 +2639,17 @@
       <c r="D56" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="67" t="s">
+      <c r="E56" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="48"/>
+      <c r="G56" s="47"/>
       <c r="H56" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="63" t="s">
+      <c r="I56" s="62" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2675,14 +2672,14 @@
       <c r="F57" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="49" t="s">
+      <c r="G57" s="48" t="s">
         <v>105</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="65" t="s">
+      <c r="I57" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="J57" s="69"/>
+      <c r="J57" s="68"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
@@ -2697,13 +2694,13 @@
       <c r="D58" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="67" t="s">
+      <c r="E58" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="48"/>
+      <c r="G58" s="47"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2725,14 +2722,14 @@
       <c r="F59" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="48" t="s">
         <v>105</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" t="s">
         <v>137</v>
       </c>
-      <c r="J59" s="69"/>
+      <c r="J59" s="68"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -2753,7 +2750,7 @@
       <c r="F60" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="49" t="s">
+      <c r="G60" s="48" t="s">
         <v>105</v>
       </c>
       <c r="H60" s="8" t="s">
@@ -2773,13 +2770,13 @@
       <c r="D61" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="66" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="48"/>
+      <c r="G61" s="47"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -2801,14 +2798,14 @@
       <c r="F62" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="48" t="s">
         <v>105</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" t="s">
         <v>137</v>
       </c>
-      <c r="J62" s="69"/>
+      <c r="J62" s="68"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -2823,13 +2820,13 @@
       <c r="D63" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="E63" s="69" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="48"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2851,7 +2848,7 @@
       <c r="F64" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="48"/>
+      <c r="G64" s="47"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2873,7 +2870,7 @@
       <c r="F65" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="48"/>
+      <c r="G65" s="47"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2895,7 +2892,7 @@
       <c r="F66" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="48"/>
+      <c r="G66" s="47"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2917,7 +2914,7 @@
       <c r="F67" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="48"/>
+      <c r="G67" s="47"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:16378" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -2961,7 +2958,7 @@
       <c r="F69" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="48"/>
+      <c r="G69" s="47"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:16378" x14ac:dyDescent="0.25">
@@ -2983,7 +2980,7 @@
       <c r="F70" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="48"/>
+      <c r="G70" s="47"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:16378" x14ac:dyDescent="0.25">
@@ -3005,7 +3002,7 @@
       <c r="F71" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="48"/>
+      <c r="G71" s="47"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
@@ -3027,7 +3024,7 @@
       <c r="F72" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G72" s="48"/>
+      <c r="G72" s="47"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
@@ -3049,7 +3046,7 @@
       <c r="F73" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="48"/>
+      <c r="G73" s="47"/>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:16378" x14ac:dyDescent="0.25">
@@ -3071,7 +3068,7 @@
       <c r="F74" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="48"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:16378" x14ac:dyDescent="0.25">
@@ -3093,10 +3090,10 @@
       <c r="F75" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G75" s="48"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:16378" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16378" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>40</v>
       </c>
@@ -19509,7 +19506,7 @@
       <c r="F77" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="48" t="s">
+      <c r="G77" s="47" t="s">
         <v>108</v>
       </c>
       <c r="H77" s="8" t="s">
@@ -19535,7 +19532,7 @@
       <c r="F78" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="48"/>
+      <c r="G78" s="47"/>
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:16378" x14ac:dyDescent="0.25">
@@ -19557,7 +19554,7 @@
       <c r="F79" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G79" s="48"/>
+      <c r="G79" s="47"/>
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:16378" ht="16.5" x14ac:dyDescent="0.25">
@@ -19579,7 +19576,7 @@
       <c r="F80" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="48"/>
+      <c r="G80" s="47"/>
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -19601,7 +19598,7 @@
       <c r="F81" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="48"/>
+      <c r="G81" s="47"/>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -19623,7 +19620,7 @@
       <c r="F82" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="48"/>
+      <c r="G82" s="47"/>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -19645,7 +19642,7 @@
       <c r="F83" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="48"/>
+      <c r="G83" s="47"/>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -19667,7 +19664,7 @@
       <c r="F84" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="48"/>
+      <c r="G84" s="47"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19683,14 +19680,16 @@
       <c r="D85" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="45" t="s">
+      <c r="E85" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="51"/>
-      <c r="H85" s="47"/>
+      <c r="F85" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" s="46"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
@@ -19711,7 +19710,7 @@
       <c r="F86" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="48"/>
+      <c r="G86" s="47"/>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -19733,7 +19732,7 @@
       <c r="F87" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="47"/>
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -19755,7 +19754,7 @@
       <c r="F88" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G88" s="48"/>
+      <c r="G88" s="47"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -19777,7 +19776,7 @@
       <c r="F89" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G89" s="48"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -19799,7 +19798,7 @@
       <c r="F90" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="50"/>
+      <c r="G90" s="49"/>
       <c r="H90" s="25" t="s">
         <v>89</v>
       </c>
@@ -19823,7 +19822,7 @@
       <c r="F91" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="50"/>
+      <c r="G91" s="49"/>
       <c r="H91" s="25" t="s">
         <v>89</v>
       </c>
@@ -19847,7 +19846,7 @@
       <c r="F92" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="48"/>
+      <c r="G92" s="47"/>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -19869,7 +19868,7 @@
       <c r="F93" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="48"/>
+      <c r="G93" s="47"/>
       <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -19891,7 +19890,7 @@
       <c r="F94" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="48"/>
+      <c r="G94" s="47"/>
       <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -19907,13 +19906,13 @@
       <c r="D95" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="66" t="s">
+      <c r="E95" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F95" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G95" s="48"/>
+      <c r="G95" s="47"/>
       <c r="H95" s="8"/>
       <c r="I95" t="s">
         <v>157</v>
@@ -19928,15 +19927,15 @@
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="46"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="45"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="s">
+      <c r="A97" s="58" t="s">
         <v>138</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="52" t="s">
         <v>117</v>
       </c>
       <c r="I97" t="s">
@@ -19944,31 +19943,31 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="58" t="s">
         <v>139</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="E98" s="66" t="s">
+      <c r="E98" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="53" t="s">
+      <c r="G98" s="52" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="58" t="s">
         <v>140</v>
       </c>
       <c r="B99" s="2"/>
       <c r="E99" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G99" s="53" t="s">
+      <c r="G99" s="52" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="58" t="s">
         <v>141</v>
       </c>
       <c r="B100" s="1"/>
@@ -19977,16 +19976,19 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="58" t="s">
         <v>142</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="E101" s="3">
-        <v>5</v>
+      <c r="E101" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G101" s="52" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="58" t="s">
         <v>143</v>
       </c>
       <c r="B102" s="2"/>
@@ -19995,14 +19997,14 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="s">
+      <c r="A103" s="58" t="s">
         <v>144</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="E103" s="66" t="s">
+      <c r="E103" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G103" s="53" t="s">
+      <c r="G103" s="52" t="s">
         <v>117</v>
       </c>
       <c r="I103" t="s">
@@ -20010,14 +20012,14 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="58" t="s">
         <v>145</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G104" s="53" t="s">
+      <c r="G104" s="52" t="s">
         <v>117</v>
       </c>
       <c r="I104" t="s">
@@ -20025,22 +20027,22 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="58" t="s">
         <v>146</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="E105" s="66" t="s">
+      <c r="E105" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="53" t="s">
+      <c r="G105" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I105" s="65" t="s">
+      <c r="I105" s="64" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="58" t="s">
         <v>147</v>
       </c>
       <c r="B106" s="1"/>
@@ -20049,7 +20051,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B107" s="2"/>
@@ -20058,7 +20060,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B108" s="1"/>
@@ -20067,7 +20069,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
+      <c r="A109" s="58" t="s">
         <v>89</v>
       </c>
       <c r="B109" s="1"/>
@@ -20076,7 +20078,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="59" t="s">
+      <c r="A110" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B110" s="1"/>
@@ -20089,7 +20091,7 @@
         <v>95</v>
       </c>
       <c r="B111" s="40"/>
-      <c r="C111" s="52"/>
+      <c r="C111" s="51"/>
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111"/>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="161">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>YT_CUSTOM_CATALOGUE_READER</t>
+  </si>
+  <si>
+    <t>A Besoin du serveur web fantoche (web_serveur)</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1918,18 +1921,26 @@
       <c r="A19" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>79</v>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="31"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="59"/>
+      <c r="I19" s="59" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\Others\UNIT_TESTS-David_20Jan22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$165</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="162">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -293,9 +293,6 @@
     <t>unitaire</t>
   </si>
   <si>
-    <t>processus</t>
-  </si>
-  <si>
     <t>Équivalent</t>
   </si>
   <si>
@@ -526,7 +523,13 @@
     <t>YT_CUSTOM_CATALOGUE_READER</t>
   </si>
   <si>
-    <t>A Besoin du serveur web fantoche (web_serveur)</t>
+    <t>Nombre des features differentes.</t>
+  </si>
+  <si>
+    <t>Non (Daniel)</t>
+  </si>
+  <si>
+    <t>OUi</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +725,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +824,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -916,25 +925,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -942,9 +935,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,13 +996,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1075,6 +1085,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1090,6 +1110,136 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1474,21 +1624,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEX166"/>
+  <dimension ref="A1:XEX165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="41" customWidth="1"/>
     <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63.85546875" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1496,7 +1646,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>85</v>
@@ -1505,22 +1655,22 @@
         <v>83</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1530,7 +1680,7 @@
       <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1543,38 +1693,37 @@
         <v>79</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="8"/>
+      <c r="I2" s="56" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>79</v>
+      <c r="B3" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="26"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1587,7 +1736,7 @@
         <v>79</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1598,7 +1747,7 @@
       <c r="B5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1610,19 +1759,19 @@
       <c r="F5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>104</v>
+      <c r="G5" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1634,8 +1783,8 @@
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>104</v>
+      <c r="G6" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1646,13 +1795,13 @@
       <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="65" t="s">
-        <v>134</v>
+      <c r="C7" s="58" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="67" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -1660,16 +1809,16 @@
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="57" t="s">
-        <v>107</v>
+      <c r="I7" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>78</v>
@@ -1683,44 +1832,41 @@
       <c r="F8" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>96</v>
+      <c r="G8" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="61" t="s">
-        <v>79</v>
+      <c r="E9" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>137</v>
+      <c r="A10" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1732,8 +1878,8 @@
       <c r="F10" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>104</v>
+      <c r="G10" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1743,7 +1889,7 @@
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1755,8 +1901,8 @@
       <c r="F11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>114</v>
+      <c r="G11" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1767,7 +1913,7 @@
       <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1777,58 +1923,52 @@
         <v>78</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="G12" s="37"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>142</v>
+      <c r="G13" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="57" t="s">
-        <v>145</v>
+      <c r="I13" s="56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="43"/>
+      <c r="B14" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1978,7 @@
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -1850,17 +1990,17 @@
       <c r="F15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -1872,8 +2012,8 @@
       <c r="F16" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>104</v>
+      <c r="G16" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,7 +2023,7 @@
       <c r="B17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -1895,52 +2035,50 @@
       <c r="F17" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="43"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="F18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="59"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
+      <c r="A19" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="31"/>
-      <c r="G19" s="43" t="s">
-        <v>98</v>
+      <c r="G19" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="59" t="s">
-        <v>160</v>
-      </c>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1961,7 +2099,7 @@
       <c r="F20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1983,12 +2121,12 @@
       <c r="F21" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>115</v>
+      <c r="G21" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="59" t="s">
-        <v>132</v>
+      <c r="I21" s="52" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2010,11 +2148,11 @@
       <c r="F22" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2032,14 +2170,14 @@
       <c r="F23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="43" t="s">
-        <v>104</v>
+      <c r="G23" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>140</v>
+      <c r="A24" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>78</v>
@@ -2056,12 +2194,12 @@
       <c r="F24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="48" t="s">
-        <v>104</v>
+      <c r="G24" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2079,11 +2217,11 @@
       <c r="F25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2101,12 +2239,12 @@
       <c r="F26" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>78</v>
@@ -2124,13 +2262,13 @@
         <v>79</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="54"/>
+        <v>115</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2146,10 +2284,10 @@
         <v>78</v>
       </c>
       <c r="F28" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2171,7 +2309,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2193,7 +2331,7 @@
       <c r="F30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2215,7 +2353,7 @@
       <c r="F31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2237,12 +2375,12 @@
       <c r="F32" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="43" t="s">
-        <v>104</v>
+      <c r="G32" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:16378" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16378" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -2263,7 +2401,7 @@
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -18638,7 +18776,7 @@
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>78</v>
@@ -18655,8 +18793,8 @@
       <c r="F34" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="43" t="s">
-        <v>98</v>
+      <c r="G34" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -18679,12 +18817,12 @@
       <c r="F35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="49" t="s">
         <v>104</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="56" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18706,12 +18844,12 @@
       <c r="F36" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="43" t="s">
-        <v>104</v>
+      <c r="G36" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18733,12 +18871,12 @@
       <c r="F37" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="43" t="s">
-        <v>104</v>
+      <c r="G37" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18760,12 +18898,12 @@
       <c r="F38" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="43" t="s">
-        <v>104</v>
+      <c r="G38" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18787,12 +18925,12 @@
       <c r="F39" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="43" t="s">
-        <v>104</v>
+      <c r="G39" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18814,7 +18952,7 @@
       <c r="F40" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="43"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18825,7 +18963,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>87</v>
@@ -18836,10 +18974,10 @@
       <c r="F41" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="43"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="8"/>
       <c r="I41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18861,7 +18999,7 @@
       <c r="F42" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18883,12 +19021,12 @@
       <c r="F43" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="43"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
-        <v>147</v>
+      <c r="A44" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
@@ -18921,18 +19059,18 @@
       <c r="D45" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="39"/>
       <c r="H45" t="s">
-        <v>152</v>
-      </c>
-      <c r="I45" s="58" t="s">
-        <v>108</v>
+        <v>151</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -18948,13 +19086,16 @@
       <c r="D46" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="45"/>
+      <c r="G46" s="39"/>
+      <c r="I46" s="51" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="47" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -18969,23 +19110,23 @@
       <c r="D47" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="43"/>
+      <c r="G47" s="37"/>
       <c r="H47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="58" t="s">
-        <v>108</v>
+        <v>157</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:16378" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>78</v>
@@ -19002,8 +19143,8 @@
       <c r="F48" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="43" t="s">
-        <v>102</v>
+      <c r="G48" s="37" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19019,19 +19160,22 @@
       <c r="D49" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="43"/>
+      <c r="G49" s="37"/>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="60" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="18" t="s">
@@ -19043,14 +19187,17 @@
       <c r="D50" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="E50" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="45"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="8"/>
+      <c r="I50" s="51" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
@@ -19065,21 +19212,24 @@
       <c r="D51" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F51" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="8"/>
+      <c r="I51" s="51" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="48" t="s">
-        <v>133</v>
+      <c r="B52" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>78</v>
@@ -19087,20 +19237,22 @@
       <c r="D52" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E52"/>
+      <c r="E52" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F52" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G52" t="s">
-        <v>142</v>
+      <c r="G52" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>133</v>
+      <c r="A53" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>78</v>
@@ -19108,8 +19260,8 @@
       <c r="F53" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G53" t="s">
-        <v>142</v>
+      <c r="G53" s="37" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19131,14 +19283,14 @@
       <c r="F54" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="43" t="s">
-        <v>104</v>
+      <c r="G54" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" s="63"/>
+        <v>117</v>
+      </c>
+      <c r="J54" s="56"/>
     </row>
     <row r="55" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -19159,12 +19311,12 @@
       <c r="F55" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="43"/>
+      <c r="G55" s="37"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" s="63"/>
+      <c r="I55" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="56"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -19185,11 +19337,11 @@
       <c r="F56" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" t="s">
-        <v>123</v>
+      <c r="G56" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19211,7 +19363,7 @@
       <c r="F57" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="43"/>
+      <c r="G57" s="37"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19233,15 +19385,15 @@
       <c r="F58" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="43" t="s">
-        <v>142</v>
+      <c r="G58" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="H58" s="8"/>
-      <c r="I58" s="56" t="s">
+      <c r="I58" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="57" t="s">
         <v>126</v>
-      </c>
-      <c r="J58" s="64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19263,7 +19415,7 @@
       <c r="F59" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="43"/>
+      <c r="G59" s="37"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19285,10 +19437,10 @@
       <c r="F60" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="43"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -19307,32 +19459,32 @@
       <c r="F61" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="43"/>
+      <c r="G61" s="37"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="40" t="s">
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="F62" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="42"/>
+      <c r="G62" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -19353,11 +19505,11 @@
       <c r="F63" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="43"/>
+      <c r="G63" s="37"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -19369,17 +19521,17 @@
       <c r="D64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="61" t="s">
+      <c r="E64" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="I64" t="s">
-        <v>124</v>
+      <c r="G64" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="56" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19401,12 +19553,12 @@
       <c r="F65" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="43"/>
+      <c r="G65" s="37"/>
       <c r="H65" s="8"/>
       <c r="I65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J65" s="63"/>
+        <v>119</v>
+      </c>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -19427,12 +19579,12 @@
       <c r="F66" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="43" t="s">
-        <v>104</v>
+      <c r="G66" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="60" t="s">
-        <v>128</v>
+      <c r="I66" s="53" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19454,12 +19606,12 @@
       <c r="F67" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="43" t="s">
-        <v>104</v>
+      <c r="G67" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H67" s="8"/>
-      <c r="I67" s="56" t="s">
-        <v>109</v>
+      <c r="I67" s="49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -19475,33 +19627,33 @@
       <c r="D68" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="71" t="s">
-        <v>142</v>
+      <c r="G68" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="60" t="s">
-        <v>125</v>
+      <c r="I68" s="69" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="G69" s="71" t="s">
-        <v>142</v>
+      <c r="A69" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="64" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -19519,7 +19671,7 @@
       <c r="F70" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="43"/>
+      <c r="G70" s="37"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19541,15 +19693,15 @@
       <c r="F71" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="43"/>
+      <c r="G71" s="37"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>133</v>
+      <c r="A72" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>82</v>
@@ -19561,17 +19713,17 @@
       <c r="F72" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G72" s="71" t="s">
-        <v>142</v>
+      <c r="G72" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>133</v>
+      <c r="A73" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>82</v>
@@ -19583,17 +19735,17 @@
       <c r="F73" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="71" t="s">
-        <v>142</v>
+      <c r="G73" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>133</v>
+      <c r="A74" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>82</v>
@@ -19605,17 +19757,17 @@
       <c r="F74" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="71" t="s">
-        <v>142</v>
+      <c r="G74" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>133</v>
+      <c r="A75" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>82</v>
@@ -19625,19 +19777,19 @@
         <v>82</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="71" t="s">
-        <v>142</v>
+        <v>93</v>
+      </c>
+      <c r="G75" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>133</v>
+      <c r="A76" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>82</v>
@@ -19649,17 +19801,17 @@
       <c r="F76" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G76" s="71" t="s">
-        <v>142</v>
+      <c r="G76" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="48" t="s">
-        <v>133</v>
+      <c r="A77" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>82</v>
@@ -19671,17 +19823,17 @@
       <c r="F77" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="71" t="s">
-        <v>142</v>
+      <c r="G77" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>133</v>
+      <c r="A78" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>82</v>
@@ -19693,17 +19845,17 @@
       <c r="F78" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="71" t="s">
-        <v>142</v>
+      <c r="G78" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="48" t="s">
-        <v>133</v>
+      <c r="A79" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>82</v>
@@ -19715,8 +19867,8 @@
       <c r="F79" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G79" s="71" t="s">
-        <v>142</v>
+      <c r="G79" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -19737,15 +19889,15 @@
         <v>79</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" s="71" t="s">
-        <v>142</v>
+        <v>93</v>
+      </c>
+      <c r="G80" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67" t="s">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="60" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -19763,12 +19915,12 @@
       <c r="F81" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="45"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>22</v>
       </c>
@@ -19787,12 +19939,12 @@
       <c r="F82" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="45"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>21</v>
       </c>
@@ -19805,21 +19957,21 @@
       <c r="D83" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="62" t="s">
+      <c r="E83" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="45"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I83" s="58" t="s">
-        <v>108</v>
+        <v>146</v>
+      </c>
+      <c r="I83" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>65</v>
       </c>
@@ -19838,16 +19990,16 @@
       <c r="F84" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="43" t="s">
-        <v>104</v>
+      <c r="G84" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H84" s="8"/>
-      <c r="I84" s="56" t="s">
-        <v>109</v>
+      <c r="I84" s="49" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="68" t="s">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="61" t="s">
         <v>66</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -19865,10 +20017,10 @@
       <c r="F85" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="37"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>23</v>
       </c>
@@ -19881,21 +20033,21 @@
       <c r="D86" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E86" s="61" t="s">
+      <c r="E86" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F86" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="43" t="s">
-        <v>104</v>
+      <c r="G86" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H86" s="8"/>
-      <c r="I86" t="s">
-        <v>129</v>
+      <c r="I86" s="56" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
@@ -19914,11 +20066,11 @@
       <c r="F87" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="43"/>
+      <c r="G87" s="37"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="67" t="s">
+    <row r="88" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="60" t="s">
         <v>67</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -19930,16 +20082,16 @@
       <c r="D88" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E88" s="62" t="s">
+      <c r="E88" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F88" s="52" t="s">
+      <c r="F88" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G88" s="45"/>
-      <c r="H88" s="53"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="46"/>
     </row>
-    <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>68</v>
       </c>
@@ -19958,10 +20110,10 @@
       <c r="F89" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="43"/>
+      <c r="G89" s="37"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>69</v>
       </c>
@@ -19974,22 +20126,22 @@
       <c r="D90" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="61" t="s">
+      <c r="E90" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F90" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="43" t="s">
-        <v>114</v>
+      <c r="G90" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="H90" s="8"/>
-      <c r="I90" s="60" t="s">
-        <v>112</v>
+      <c r="I90" s="69" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="68" t="s">
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -20005,17 +20157,17 @@
         <v>78</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" s="43" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="G91" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H91" s="8"/>
-      <c r="I91" s="60" t="s">
-        <v>113</v>
+      <c r="I91" s="53" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>71</v>
       </c>
@@ -20034,10 +20186,10 @@
       <c r="F92" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="37"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
@@ -20056,16 +20208,16 @@
       <c r="F93" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="71" t="s">
-        <v>142</v>
+      <c r="G93" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="H93" s="8"/>
-      <c r="I93" s="59" t="s">
-        <v>110</v>
+      <c r="I93" s="70" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="68" t="s">
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -20077,577 +20229,652 @@
       <c r="D94" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="61" t="s">
+      <c r="E94" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F94" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="43"/>
+      <c r="G94" s="37"/>
       <c r="H94" s="8"/>
       <c r="I94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="59"/>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="37"/>
+      <c r="H95" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I95" s="51" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>79</v>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E96" s="62" t="s">
+      <c r="E96" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I96" s="58" t="s">
-        <v>108</v>
-      </c>
+      <c r="G96" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="J96" s="56"/>
     </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>73</v>
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E98" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F97" s="29" t="s">
+      <c r="F98" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="J97" s="63"/>
-    </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G98" s="71" t="s">
-        <v>142</v>
-      </c>
+      <c r="G98" s="37"/>
       <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>79</v>
+      <c r="A99" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E99" s="62" t="s">
-        <v>79</v>
+      <c r="E99" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F99" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G99" s="43"/>
+      <c r="G99" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="H99" s="8"/>
+      <c r="I99" t="s">
+        <v>121</v>
+      </c>
+      <c r="J99" s="56"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>78</v>
+      <c r="A100" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>78</v>
+      <c r="E100" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="F100" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="44" t="s">
-        <v>96</v>
-      </c>
+      <c r="G100" s="37"/>
       <c r="H100" s="8"/>
-      <c r="I100" t="s">
-        <v>122</v>
-      </c>
-      <c r="J100" s="63"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>79</v>
+      <c r="A101" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E101" s="62" t="s">
-        <v>79</v>
+      <c r="E101" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G101" s="43"/>
+      <c r="G101" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="H101" s="8"/>
+      <c r="I101" t="s">
+        <v>121</v>
+      </c>
+      <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="H102" s="8"/>
-      <c r="I102" t="s">
-        <v>122</v>
-      </c>
-      <c r="J102" s="63"/>
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="40"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
     </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" s="37"/>
-      <c r="C103" s="47"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="62"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="69"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="69"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="70"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="69"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="69"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="69"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="69"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="70"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="69"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="69"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="69"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="69"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="63"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="70"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="69"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="69"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="69"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="69"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="69"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="63"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="69"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="69"/>
-      <c r="B135" s="1"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="62"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="69"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="69"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="63"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="70"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="62"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="69"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="69"/>
-      <c r="B141" s="1"/>
+      <c r="A141" s="63"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="62"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="69"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="69"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="63"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="70"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="62"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
+      <c r="A146" s="62"/>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="69"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="63"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="70"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="62"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="69"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="69"/>
-      <c r="B150" s="1"/>
+      <c r="A150" s="63"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="70"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="62"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="69"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="69"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="63"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="70"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="62"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="69"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="69"/>
-      <c r="B156" s="1"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="70"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="62"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="69"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="69"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="63"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="70"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="62"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="69"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="69"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="63"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="70"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="62"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="69"/>
+      <c r="A164" s="62"/>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="69"/>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="70"/>
-      <c r="B166" s="2"/>
+      <c r="A165" s="63"/>
+      <c r="B165" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4 B79">
-    <cfRule type="cellIs" dxfId="17" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="88" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C15:C19">
-    <cfRule type="cellIs" dxfId="16" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="98" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 B79">
-    <cfRule type="expression" priority="62">
+    <cfRule type="expression" priority="89">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="90" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="14" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="87" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="13" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="83" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" priority="54">
+    <cfRule type="expression" priority="81">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="82" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="11" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="80" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="10" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="72" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="9" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="71" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="22" priority="64" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" priority="35">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" priority="32">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B78">
+    <cfRule type="expression" priority="29">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:B78">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" priority="26">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" priority="23">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" priority="20">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" priority="17">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" priority="14">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" priority="11">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" priority="2">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="39">
+    <cfRule type="expression" priority="5">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="7" priority="38" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="13">
-      <formula>IF($D$2="y",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B53">
-    <cfRule type="expression" priority="8">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B53">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" priority="5">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B78">
-    <cfRule type="expression" priority="2">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\Others\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="169">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -490,9 +490,6 @@
     <t>SOCRATA_ADDITIONAL_ACCESS_POINTS_RESOURCES_EXTRACTOR</t>
   </si>
   <si>
-    <t>SOCRATA_ADVANCED_VIEW_EXTRACTOR</t>
-  </si>
-  <si>
     <t>SOCRATA_ATTACHEMENTS_EXTRACTOR</t>
   </si>
   <si>
@@ -526,10 +523,19 @@
     <t>OUi</t>
   </si>
   <si>
-    <t>DEFAULT_ATTRIBUTE_MAPPER_NG</t>
+    <t>Can not find it in any WS (???)</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>SOCRATA_ADVANCED_VIEW_EXTRACTOR</t>
   </si>
   <si>
     <t>Utilise le erveur web fantoches</t>
+  </si>
+  <si>
+    <t>DEFAULT_ATTRIBUTE_MAPPER_NG</t>
   </si>
   <si>
     <t>Remplace DEFAULT_ATTRIBUTE_MAPPER</t>
@@ -538,10 +544,10 @@
     <t>LICENSE_FILTER_NG</t>
   </si>
   <si>
-    <t xml:space="preserve"> LOOKUP_TABLES_READER</t>
+    <t>Remplace LICENSE_FILTER</t>
   </si>
   <si>
-    <t>Remplace LICENSE_FILTER</t>
+    <t xml:space="preserve"> LOOKUP_TABLES_READER</t>
   </si>
   <si>
     <t>Remplace LOOKUP_TABLES_READER</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +690,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC9D1D9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -839,7 +852,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1031,13 +1044,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1045,6 +1066,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1641,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1743,7 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1720,7 +1751,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="15"/>
@@ -2063,9 +2094,7 @@
       <c r="C18" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="D18" s="16"/>
       <c r="E18" s="10" t="s">
         <v>82</v>
       </c>
@@ -2098,7 +2127,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2125,7 +2154,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>78</v>
@@ -2147,7 +2176,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,7 +2459,7 @@
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>78</v>
@@ -2454,7 +2483,7 @@
         <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:16378" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -18872,10 +18901,10 @@
         <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:16378" ht="45" x14ac:dyDescent="0.25">
@@ -19147,7 +19176,7 @@
       </c>
       <c r="G47" s="39"/>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="51" t="s">
         <v>107</v>
@@ -19198,7 +19227,7 @@
       </c>
       <c r="G49" s="37"/>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I49" s="51" t="s">
         <v>107</v>
@@ -19331,17 +19360,23 @@
       <c r="A55" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>132</v>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>78</v>
+      <c r="D55" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19723,13 +19758,19 @@
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="73" t="s">
         <v>132</v>
       </c>
+      <c r="C71" s="74" t="s">
+        <v>160</v>
+      </c>
       <c r="G71" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
+      </c>
+      <c r="I71" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19778,23 +19819,25 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10" t="s">
-        <v>82</v>
+        <v>153</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F74" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G74" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H74" s="8"/>
     </row>
@@ -19802,71 +19845,77 @@
       <c r="A75" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10" t="s">
-        <v>82</v>
+      <c r="B75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G75" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10" t="s">
-        <v>82</v>
+        <v>161</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G76" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>93</v>
+        <v>148</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G77" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="41" t="s">
         <v>132</v>
@@ -19888,7 +19937,7 @@
     </row>
     <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B79" s="41" t="s">
         <v>132</v>
@@ -19910,7 +19959,7 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>132</v>
@@ -19932,7 +19981,7 @@
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>132</v>
@@ -19997,7 +20046,7 @@
       </c>
       <c r="G83" s="39"/>
       <c r="H83" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20021,7 +20070,7 @@
       </c>
       <c r="G84" s="39"/>
       <c r="H84" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20342,7 +20391,7 @@
       </c>
       <c r="G97" s="37"/>
       <c r="H97" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I97" s="51" t="s">
         <v>107</v>
@@ -20760,188 +20809,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4 B81">
-    <cfRule type="cellIs" dxfId="31" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="92" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 C15:C19">
-    <cfRule type="cellIs" dxfId="30" priority="98" operator="equal">
+  <conditionalFormatting sqref="C3 C15:C18">
+    <cfRule type="cellIs" dxfId="31" priority="102" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 B81">
-    <cfRule type="expression" priority="89">
+    <cfRule type="expression" priority="93">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="29" priority="91" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
     <cfRule type="cellIs" dxfId="28" priority="87" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="27" priority="83" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" priority="81">
+    <cfRule type="expression" priority="85">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="86" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="25" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="84" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="24" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="76" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="23" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="75" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="22" priority="64" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="35">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="68" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" priority="32">
+    <cfRule type="expression" priority="36">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B80">
-    <cfRule type="expression" priority="29">
+  <conditionalFormatting sqref="B78:B80">
+    <cfRule type="expression" priority="33">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B80">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+  <conditionalFormatting sqref="B78:B80">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" priority="23">
+    <cfRule type="expression" priority="27">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" priority="20">
+    <cfRule type="expression" priority="24">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" priority="17">
+    <cfRule type="expression" priority="21">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" priority="14">
+    <cfRule type="expression" priority="18">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" priority="6">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" priority="9">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" priority="11">
+    <cfRule type="expression" priority="2">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" priority="2">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="5">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\Others\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="169">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -1058,7 +1058,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1076,46 +1076,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1672,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19917,21 +19877,23 @@
       <c r="A78" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>78</v>
+      <c r="B78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G78" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -19939,21 +19901,23 @@
       <c r="A79" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>78</v>
+      <c r="B79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G79" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -19961,21 +19925,23 @@
       <c r="A80" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F80" s="30" t="s">
+      <c r="B80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G80" s="64" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H80" s="8"/>
     </row>
@@ -20809,12 +20775,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4 B81">
-    <cfRule type="cellIs" dxfId="32" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="92" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C15:C18">
-    <cfRule type="cellIs" dxfId="31" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="102" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20822,17 +20788,17 @@
     <cfRule type="expression" priority="93">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="94" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="29" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="91" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="28" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="87" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20840,27 +20806,27 @@
     <cfRule type="expression" priority="85">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="86" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="26" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="84" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="25" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="76" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="24" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="75" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="23" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="68" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20868,25 +20834,12 @@
     <cfRule type="expression" priority="36">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B80">
-    <cfRule type="expression" priority="33">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:B80">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20894,12 +20847,12 @@
     <cfRule type="expression" priority="27">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20907,12 +20860,12 @@
     <cfRule type="expression" priority="24">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20920,12 +20873,12 @@
     <cfRule type="expression" priority="21">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20933,12 +20886,12 @@
     <cfRule type="expression" priority="18">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\Others\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="184">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -359,9 +359,6 @@
   --  xlsx_type:xlsx_none</t>
   </si>
   <si>
-    <t>attributes de: resources{}.xlink_role changent de urn:xml:lang:fra-CAN / urn:xml:lang:eng-CAN dans la liste</t>
-  </si>
-  <si>
     <t>7 '_hash_'  attributs supprimés de l'étalon</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
   </si>
   <si>
     <t>YT_CUSTOM_CATALOGUE_READER</t>
-  </si>
-  <si>
-    <t>Nombre des features differentes.</t>
   </si>
   <si>
     <t>OUi</t>
@@ -903,7 +897,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1088,9 +1082,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,7 +1104,147 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1667,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1727,8 +1858,8 @@
       <c r="D2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>79</v>
+      <c r="E2" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>79</v>
@@ -1737,16 +1868,13 @@
         <v>103</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="56" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="15"/>
@@ -1770,8 +1898,8 @@
       <c r="D4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>79</v>
+      <c r="E4" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>79</v>
@@ -1837,7 +1965,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>87</v>
@@ -1856,7 +1984,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>99</v>
@@ -1902,7 +2030,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>78</v>
@@ -1943,7 +2071,7 @@
         <v>79</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1977,23 +2105,23 @@
         <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2081,7 +2209,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>79</v>
@@ -2102,7 +2230,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>78</v>
@@ -2122,7 +2250,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2149,7 +2277,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>78</v>
@@ -2171,7 +2299,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2194,11 +2322,11 @@
         <v>79</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2249,7 +2377,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
@@ -2315,8 +2443,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>170</v>
+      <c r="A28" s="75" t="s">
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>79</v>
@@ -2328,19 +2456,19 @@
         <v>87</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="37"/>
       <c r="I28" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
@@ -2358,7 +2486,7 @@
         <v>79</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="43"/>
       <c r="I29" s="47"/>
@@ -2387,8 +2515,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>182</v>
+      <c r="A31" s="75" t="s">
+        <v>180</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>79</v>
@@ -2407,7 +2535,7 @@
       </c>
       <c r="G31" s="26"/>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2429,12 +2557,12 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>79</v>
@@ -2453,7 +2581,7 @@
       </c>
       <c r="G33"/>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -2526,7 +2654,7 @@
     </row>
     <row r="37" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>78</v>
@@ -2546,11 +2674,11 @@
       <c r="G37" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="71" t="s">
         <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:16378" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -18968,10 +19096,10 @@
         <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:16378" ht="45" x14ac:dyDescent="0.25">
@@ -19025,12 +19153,12 @@
       </c>
       <c r="H41" s="8"/>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>79</v>
@@ -19042,7 +19170,7 @@
         <v>87</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>78</v>
@@ -19050,7 +19178,7 @@
       <c r="G42" s="37"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19077,7 +19205,7 @@
       </c>
       <c r="H43" s="8"/>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19104,12 +19232,12 @@
       </c>
       <c r="H44" s="8"/>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>79</v>
@@ -19129,7 +19257,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="8"/>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19156,7 +19284,7 @@
       </c>
       <c r="H46" s="8"/>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19183,7 +19311,7 @@
     </row>
     <row r="48" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>79</v>
@@ -19203,7 +19331,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="8"/>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19214,7 +19342,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>87</v>
@@ -19228,7 +19356,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="8"/>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19277,7 +19405,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -19318,7 +19446,7 @@
       </c>
       <c r="G53" s="39"/>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I53" s="51" t="s">
         <v>107</v>
@@ -19369,7 +19497,7 @@
       </c>
       <c r="G55" s="37"/>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I55" s="51" t="s">
         <v>107</v>
@@ -19500,7 +19628,7 @@
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
@@ -19545,7 +19673,7 @@
       </c>
       <c r="H62" s="8"/>
       <c r="I62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J62" s="56"/>
     </row>
@@ -19571,7 +19699,7 @@
       <c r="G63" s="37"/>
       <c r="H63" s="8"/>
       <c r="I63" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J63" s="56"/>
     </row>
@@ -19595,10 +19723,10 @@
         <v>78</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I64" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19643,14 +19771,14 @@
         <v>79</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="57" t="s">
         <v>125</v>
-      </c>
-      <c r="J66" s="57" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19677,7 +19805,7 @@
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>79</v>
@@ -19696,7 +19824,7 @@
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19744,7 +19872,7 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>60</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -19756,8 +19884,8 @@
       <c r="D71" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>79</v>
+      <c r="E71" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F71" s="29" t="s">
         <v>79</v>
@@ -19765,7 +19893,8 @@
       <c r="G71" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H71" s="72"/>
+      <c r="H71" s="71"/>
+      <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -19812,7 +19941,7 @@
         <v>103</v>
       </c>
       <c r="I73" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19837,7 +19966,7 @@
       <c r="G74" s="37"/>
       <c r="H74" s="8"/>
       <c r="I74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J74" s="56"/>
     </row>
@@ -19865,7 +19994,7 @@
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19915,28 +20044,28 @@
         <v>78</v>
       </c>
       <c r="G77" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="74" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>158</v>
       </c>
       <c r="G78" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="75" t="s">
-        <v>159</v>
+      <c r="I78" s="74" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19985,7 +20114,7 @@
     </row>
     <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -20009,7 +20138,7 @@
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -20033,7 +20162,7 @@
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -20057,7 +20186,7 @@
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -20081,7 +20210,7 @@
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -20105,7 +20234,7 @@
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -20129,7 +20258,7 @@
     </row>
     <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -20153,10 +20282,10 @@
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>82</v>
@@ -20169,7 +20298,7 @@
         <v>78</v>
       </c>
       <c r="G88" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -20193,7 +20322,7 @@
         <v>93</v>
       </c>
       <c r="G89" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H89" s="8"/>
     </row>
@@ -20218,7 +20347,7 @@
       </c>
       <c r="G90" s="39"/>
       <c r="H90" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20242,7 +20371,7 @@
       </c>
       <c r="G91" s="39"/>
       <c r="H91" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20266,7 +20395,7 @@
       </c>
       <c r="G92" s="39"/>
       <c r="H92" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I92" s="51" t="s">
         <v>107</v>
@@ -20301,7 +20430,7 @@
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>78</v>
@@ -20320,9 +20449,9 @@
       </c>
       <c r="G94" s="37"/>
       <c r="H94" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I94" s="77"/>
+        <v>183</v>
+      </c>
+      <c r="I94" s="76"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
@@ -20337,8 +20466,8 @@
       <c r="D95" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>79</v>
+      <c r="E95" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F95" s="29" t="s">
         <v>79</v>
@@ -20370,7 +20499,7 @@
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20459,11 +20588,11 @@
         <v>79</v>
       </c>
       <c r="G100" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20490,7 +20619,7 @@
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20528,19 +20657,16 @@
       <c r="D103" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>79</v>
+      <c r="E103" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F103" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G103" s="64" t="s">
-        <v>140</v>
+      <c r="G103" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H103" s="8"/>
-      <c r="I103" s="70" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
@@ -20564,7 +20690,7 @@
       <c r="G104" s="37"/>
       <c r="H104" s="8"/>
       <c r="I104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20588,7 +20714,7 @@
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I105" s="51" t="s">
         <v>107</v>
@@ -20618,7 +20744,7 @@
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J106" s="56"/>
     </row>
@@ -20638,7 +20764,7 @@
         <v>78</v>
       </c>
       <c r="G107" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H107" s="8"/>
     </row>
@@ -20688,7 +20814,7 @@
       </c>
       <c r="H109" s="8"/>
       <c r="I109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J109" s="56"/>
     </row>
@@ -20738,7 +20864,7 @@
       </c>
       <c r="H111" s="8"/>
       <c r="I111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J111" s="56"/>
     </row>
@@ -21005,167 +21131,190 @@
       <c r="B175" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4 B88">
-    <cfRule type="cellIs" dxfId="26" priority="92" operator="equal">
+  <conditionalFormatting sqref="B88">
+    <cfRule type="cellIs" dxfId="40" priority="101" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 C15:C18">
-    <cfRule type="cellIs" dxfId="25" priority="102" operator="equal">
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="cellIs" dxfId="39" priority="111" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 B88">
-    <cfRule type="expression" priority="93">
+  <conditionalFormatting sqref="B88">
+    <cfRule type="expression" priority="102">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="103" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="23" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="100" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="22" priority="87" operator="equal">
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="cellIs" dxfId="36" priority="96" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" priority="85">
+    <cfRule type="expression" priority="94">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="95" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="20" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="93" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="cellIs" dxfId="32" priority="84" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="31" priority="77" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="expression" priority="45">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" priority="36">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" priority="33">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" priority="30">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" priority="15">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" priority="18">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" priority="11">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" priority="7">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" priority="3">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="19" priority="76" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="18" priority="75" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="expression" priority="36">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="37" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" priority="27">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" priority="24">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" priority="21">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" priority="18">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" priority="6">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" priority="9">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"n"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" priority="2">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\Others\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="184">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -1104,77 +1104,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1382,36 +1312,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1798,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="103" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2361,9 @@
       <c r="F28" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="I28" s="8" t="s">
         <v>169</v>
       </c>
@@ -2533,7 +2435,9 @@
       <c r="F31" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>97</v>
+      </c>
       <c r="I31" t="s">
         <v>181</v>
       </c>
@@ -2579,7 +2483,9 @@
       <c r="F33" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G33"/>
+      <c r="G33" s="26" t="s">
+        <v>97</v>
+      </c>
       <c r="I33" t="s">
         <v>179</v>
       </c>
@@ -2672,7 +2578,7 @@
         <v>79</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H37" s="71" t="s">
         <v>39</v>
@@ -19175,7 +19081,9 @@
       <c r="F42" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="37"/>
+      <c r="G42" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
         <v>173</v>
@@ -19254,7 +19162,9 @@
       <c r="F45" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="37"/>
+      <c r="G45" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" t="s">
         <v>175</v>
@@ -19328,7 +19238,9 @@
       <c r="F48" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="37"/>
+      <c r="G48" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" t="s">
         <v>177</v>
@@ -19822,7 +19734,9 @@
       <c r="F68" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="37"/>
+      <c r="G68" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H68" s="8" t="s">
         <v>171</v>
       </c>
@@ -20447,7 +20361,9 @@
       <c r="F94" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="37"/>
+      <c r="G94" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H94" s="8" t="s">
         <v>183</v>
       </c>
@@ -21132,12 +21048,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="40" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="101" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C18">
-    <cfRule type="cellIs" dxfId="39" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="111" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21145,17 +21061,17 @@
     <cfRule type="expression" priority="102">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="103" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="37" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="100" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="36" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="96" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21163,22 +21079,22 @@
     <cfRule type="expression" priority="94">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="95" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="34" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="93" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="32" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="84" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="31" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="77" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21186,12 +21102,12 @@
     <cfRule type="expression" priority="45">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21199,12 +21115,12 @@
     <cfRule type="expression" priority="36">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="37" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21212,12 +21128,12 @@
     <cfRule type="expression" priority="33">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21225,12 +21141,12 @@
     <cfRule type="expression" priority="30">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21238,12 +21154,12 @@
     <cfRule type="expression" priority="15">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21251,17 +21167,17 @@
     <cfRule type="expression" priority="18">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21269,12 +21185,12 @@
     <cfRule type="expression" priority="11">
       <formula>isempty()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -897,7 +897,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1098,6 +1098,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1698,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19067,7 +19071,7 @@
         <v>172</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>78</v>
@@ -19076,7 +19080,7 @@
         <v>87</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>78</v>
@@ -19715,29 +19719,29 @@
       <c r="G67" s="37"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="34" t="s">
+      <c r="B68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>82</v>
+      <c r="E68" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F68" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="78" t="s">
         <v>171</v>
       </c>
     </row>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="178">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Les resultats sont trop diversés de l'étalon</t>
   </si>
   <si>
-    <t>etalon: _element_count Plusieur_attributes_value sont  &lt;null&gt;</t>
-  </si>
-  <si>
     <t>xlsx_type:xlsx_none</t>
   </si>
   <si>
@@ -401,23 +398,8 @@
     <t>ceci marche tout de debut.</t>
   </si>
   <si>
-    <t>19 ok; 2 completement diffferents</t>
-  </si>
-  <si>
-    <t>plusieurs differences dans 26/610 features</t>
-  </si>
-  <si>
     <t>Diffs dans distributionList{} et resources{}
 Resultat_2: 1 feature de trop</t>
-  </si>
-  <si>
-    <t>Inexistent Attribute in 'etalon' files
-  --  xlsx_type:xlsx_none
- Inexistent attributes in 'results' file
- --  resources{}.xlsx_type:xlsx_none</t>
-  </si>
-  <si>
-    <t>TO follow</t>
   </si>
   <si>
     <t>Plusieurs attributes inexistents dans 'etalon':
@@ -470,9 +452,6 @@
   </si>
   <si>
     <t>N/A (???)</t>
-  </si>
-  <si>
-    <t>il existe juste dans Documents/FME et utilisé par BC_FGP…_Prod_04.fmw</t>
   </si>
   <si>
     <t>Oui / PROD</t>
@@ -897,7 +876,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1045,9 +1024,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,9 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1702,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1774,15 +1747,15 @@
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F3" s="29"/>
@@ -1868,13 +1841,13 @@
       <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>132</v>
+      <c r="C7" s="57" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -1888,7 +1861,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>99</v>
@@ -1916,7 +1889,7 @@
       <c r="A9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -1925,7 +1898,7 @@
       <c r="D9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -1934,7 +1907,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>78</v>
@@ -2009,35 +1982,32 @@
         <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="56" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="58"/>
+      <c r="B14" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="57"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="29"/>
@@ -2113,9 +2083,9 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="41" t="s">
@@ -2134,9 +2104,9 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="66" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="41" t="s">
@@ -2154,7 +2124,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="52" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2181,7 +2151,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>78</v>
@@ -2203,7 +2173,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2200,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="52" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2281,7 +2251,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
@@ -2347,8 +2317,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>168</v>
+      <c r="A28" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>79</v>
@@ -2360,7 +2330,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>79</v>
@@ -2369,12 +2339,12 @@
         <v>97</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
@@ -2421,8 +2391,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
-        <v>180</v>
+      <c r="A31" s="73" t="s">
+        <v>174</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>79</v>
@@ -2443,7 +2413,7 @@
         <v>97</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2465,12 +2435,12 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>79</v>
@@ -2491,7 +2461,7 @@
         <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -2564,7 +2534,7 @@
     </row>
     <row r="37" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>78</v>
@@ -2584,11 +2554,11 @@
       <c r="G37" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="69" t="s">
         <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:16378" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -19006,10 +18976,10 @@
         <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:16378" ht="45" x14ac:dyDescent="0.25">
@@ -19068,7 +19038,7 @@
     </row>
     <row r="42" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>78</v>
@@ -19090,7 +19060,7 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19149,7 +19119,7 @@
     </row>
     <row r="45" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>79</v>
@@ -19171,7 +19141,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19225,7 +19195,7 @@
     </row>
     <row r="48" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>79</v>
@@ -19247,7 +19217,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19258,7 +19228,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>87</v>
@@ -19272,7 +19242,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="8"/>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19321,7 +19291,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -19362,7 +19332,7 @@
       </c>
       <c r="G53" s="39"/>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I53" s="51" t="s">
         <v>107</v>
@@ -19413,7 +19383,7 @@
       </c>
       <c r="G55" s="37"/>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I55" s="51" t="s">
         <v>107</v>
@@ -19470,7 +19440,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -19544,7 +19514,7 @@
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
@@ -19614,10 +19584,8 @@
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="J63" s="56"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -19632,17 +19600,14 @@
       <c r="D64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>79</v>
+      <c r="E64" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>121</v>
+      <c r="G64" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19680,22 +19645,16 @@
       <c r="D66" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="9" t="s">
-        <v>79</v>
+      <c r="E66" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F66" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66" s="57" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
@@ -19721,7 +19680,7 @@
     </row>
     <row r="68" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -19738,11 +19697,11 @@
       <c r="F68" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="77" t="s">
+      <c r="G68" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="H68" s="78" t="s">
-        <v>171</v>
+      <c r="H68" s="76" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19790,7 +19749,7 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="68" t="s">
         <v>60</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -19811,7 +19770,7 @@
       <c r="G71" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H71" s="71"/>
+      <c r="H71" s="69"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19849,17 +19808,14 @@
       <c r="D73" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="54" t="s">
-        <v>79</v>
+      <c r="E73" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="41" t="s">
         <v>103</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19884,7 +19840,7 @@
       <c r="G74" s="37"/>
       <c r="H74" s="8"/>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J74" s="56"/>
     </row>
@@ -19912,7 +19868,7 @@
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19961,33 +19917,33 @@
       <c r="F77" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="64" t="s">
-        <v>139</v>
+      <c r="G77" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="69" t="s">
-        <v>123</v>
+      <c r="I77" s="67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="74" t="s">
-        <v>157</v>
+      <c r="I78" s="72" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="60" t="s">
         <v>18</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -20032,7 +19988,7 @@
     </row>
     <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -20049,14 +20005,14 @@
       <c r="F81" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="64" t="s">
+      <c r="G81" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -20073,14 +20029,14 @@
       <c r="F82" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="64" t="s">
+      <c r="G82" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -20097,14 +20053,14 @@
       <c r="F83" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="64" t="s">
+      <c r="G83" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -20121,14 +20077,14 @@
       <c r="F84" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="64" t="s">
+      <c r="G84" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -20145,14 +20101,14 @@
       <c r="F85" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="64" t="s">
+      <c r="G85" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -20169,14 +20125,14 @@
       <c r="F86" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="64" t="s">
+      <c r="G86" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -20193,17 +20149,17 @@
       <c r="F87" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="64" t="s">
+      <c r="G87" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>82</v>
@@ -20215,8 +20171,8 @@
       <c r="F88" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G88" s="64" t="s">
-        <v>139</v>
+      <c r="G88" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -20239,13 +20195,13 @@
       <c r="F89" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G89" s="64" t="s">
-        <v>139</v>
+      <c r="G89" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -20265,7 +20221,7 @@
       </c>
       <c r="G90" s="39"/>
       <c r="H90" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20289,7 +20245,7 @@
       </c>
       <c r="G91" s="39"/>
       <c r="H91" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20313,7 +20269,7 @@
       </c>
       <c r="G92" s="39"/>
       <c r="H92" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I92" s="51" t="s">
         <v>107</v>
@@ -20342,13 +20298,11 @@
         <v>103</v>
       </c>
       <c r="H93" s="8"/>
-      <c r="I93" s="49" t="s">
-        <v>108</v>
-      </c>
+      <c r="I93" s="74"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>78</v>
@@ -20369,12 +20323,12 @@
         <v>97</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I94" s="76"/>
+        <v>177</v>
+      </c>
+      <c r="I94" s="74"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61" t="s">
+      <c r="A95" s="60" t="s">
         <v>66</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -20419,7 +20373,7 @@
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="56" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20445,7 +20399,7 @@
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="60" t="s">
+      <c r="A98" s="59" t="s">
         <v>67</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -20511,12 +20465,12 @@
         <v>112</v>
       </c>
       <c r="H100" s="8"/>
-      <c r="I100" s="69" t="s">
+      <c r="I100" s="67" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61" t="s">
+      <c r="A101" s="60" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -20589,7 +20543,7 @@
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61" t="s">
+      <c r="A104" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -20610,7 +20564,7 @@
       <c r="G104" s="37"/>
       <c r="H104" s="8"/>
       <c r="I104" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20634,7 +20588,7 @@
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I105" s="51" t="s">
         <v>107</v>
@@ -20663,8 +20617,8 @@
         <v>95</v>
       </c>
       <c r="H106" s="8"/>
-      <c r="I106" s="69" t="s">
-        <v>119</v>
+      <c r="I106" s="67" t="s">
+        <v>118</v>
       </c>
       <c r="J106" s="56"/>
     </row>
@@ -20683,13 +20637,13 @@
       <c r="F107" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G107" s="64" t="s">
-        <v>139</v>
+      <c r="G107" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="60" t="s">
+      <c r="A108" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B108" s="18" t="s">
@@ -20734,7 +20688,7 @@
       </c>
       <c r="H109" s="8"/>
       <c r="I109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J109" s="56"/>
     </row>
@@ -20761,7 +20715,7 @@
       <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="60" t="s">
         <v>77</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -20784,7 +20738,7 @@
       </c>
       <c r="H111" s="8"/>
       <c r="I111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J111" s="56"/>
     </row>
@@ -20799,255 +20753,255 @@
       <c r="G112"/>
     </row>
     <row r="113" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
       <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
       <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
       <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
       <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
+      <c r="A163" s="62"/>
       <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
+      <c r="A166" s="62"/>
       <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
+      <c r="A169" s="62"/>
       <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
+      <c r="A172" s="62"/>
       <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
       <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
+      <c r="A175" s="62"/>
       <c r="B175" s="2"/>
     </row>
   </sheetData>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DavidH\NRCan\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FGP_GITHUB\fgp-metadata-proxy\FME_files\UNIT_TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="177">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>Remplace LOOKUP_TABLES_READER</t>
-  </si>
-  <si>
-    <t>pas là</t>
   </si>
   <si>
     <t>GEO_EXTENTS_MAPPER_NG</t>
@@ -1675,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2318,10 +2315,10 @@
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>78</v>
@@ -2330,7 +2327,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>79</v>
@@ -2339,7 +2336,7 @@
         <v>97</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2392,7 +2389,7 @@
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>79</v>
@@ -2413,7 +2410,7 @@
         <v>97</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2440,7 +2437,7 @@
     </row>
     <row r="33" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>79</v>
@@ -2461,7 +2458,7 @@
         <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19038,7 +19035,7 @@
     </row>
     <row r="42" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>78</v>
@@ -19060,7 +19057,7 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19119,7 +19116,7 @@
     </row>
     <row r="45" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>79</v>
@@ -19141,7 +19138,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19195,7 +19192,7 @@
     </row>
     <row r="48" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>79</v>
@@ -19217,7 +19214,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19680,7 +19677,7 @@
     </row>
     <row r="68" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -19701,7 +19698,7 @@
         <v>97</v>
       </c>
       <c r="H68" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20302,7 +20299,7 @@
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>78</v>
@@ -20323,7 +20320,7 @@
         <v>97</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I94" s="74"/>
     </row>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="177">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Les resultats sont trop diversés de l'étalon</t>
   </si>
   <si>
-    <t>etalon: _element_count Plusieur_attributes_value sont  &lt;null&gt;</t>
-  </si>
-  <si>
     <t>xlsx_type:xlsx_none</t>
   </si>
   <si>
@@ -401,23 +398,8 @@
     <t>ceci marche tout de debut.</t>
   </si>
   <si>
-    <t>19 ok; 2 completement diffferents</t>
-  </si>
-  <si>
-    <t>plusieurs differences dans 26/610 features</t>
-  </si>
-  <si>
     <t>Diffs dans distributionList{} et resources{}
 Resultat_2: 1 feature de trop</t>
-  </si>
-  <si>
-    <t>Inexistent Attribute in 'etalon' files
-  --  xlsx_type:xlsx_none
- Inexistent attributes in 'results' file
- --  resources{}.xlsx_type:xlsx_none</t>
-  </si>
-  <si>
-    <t>TO follow</t>
   </si>
   <si>
     <t>Plusieurs attributes inexistents dans 'etalon':
@@ -470,9 +452,6 @@
   </si>
   <si>
     <t>N/A (???)</t>
-  </si>
-  <si>
-    <t>il existe juste dans Documents/FME et utilisé par BC_FGP…_Prod_04.fmw</t>
   </si>
   <si>
     <t>Oui / PROD</t>
@@ -545,9 +524,6 @@
   </si>
   <si>
     <t>Remplace LOOKUP_TABLES_READER</t>
-  </si>
-  <si>
-    <t>pas là</t>
   </si>
   <si>
     <t>GEO_EXTENTS_MAPPER_NG</t>
@@ -1045,9 +1021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,9 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1098,6 +1068,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1698,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1770,15 +1744,15 @@
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F3" s="29"/>
@@ -1864,13 +1838,13 @@
       <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>132</v>
+      <c r="C7" s="57" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -1884,7 +1858,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>99</v>
@@ -1912,7 +1886,7 @@
       <c r="A9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -1921,7 +1895,7 @@
       <c r="D9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -1930,7 +1904,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>78</v>
@@ -2005,35 +1979,32 @@
         <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="56" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="58"/>
+      <c r="B14" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="57"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="29"/>
@@ -2109,9 +2080,9 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="41" t="s">
@@ -2130,9 +2101,9 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="66" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="41" t="s">
@@ -2150,7 +2121,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="52" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2177,7 +2148,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>78</v>
@@ -2199,7 +2170,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,7 +2197,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="52" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2277,7 +2248,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
@@ -2343,11 +2314,11 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>168</v>
+      <c r="A28" s="73" t="s">
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>78</v>
@@ -2356,7 +2327,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>79</v>
@@ -2365,12 +2336,12 @@
         <v>97</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
@@ -2417,8 +2388,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
-        <v>180</v>
+      <c r="A31" s="73" t="s">
+        <v>173</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>79</v>
@@ -2439,7 +2410,7 @@
         <v>97</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2461,12 +2432,12 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>79</v>
@@ -2487,7 +2458,7 @@
         <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -2560,7 +2531,7 @@
     </row>
     <row r="37" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>78</v>
@@ -2580,11 +2551,11 @@
       <c r="G37" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="69" t="s">
         <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:16378" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -19002,10 +18973,10 @@
         <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:16378" ht="45" x14ac:dyDescent="0.25">
@@ -19064,10 +19035,10 @@
     </row>
     <row r="42" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>78</v>
@@ -19076,7 +19047,7 @@
         <v>87</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>78</v>
@@ -19086,7 +19057,7 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19145,7 +19116,7 @@
     </row>
     <row r="45" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>79</v>
@@ -19167,7 +19138,7 @@
       </c>
       <c r="H45" s="8"/>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -19221,7 +19192,7 @@
     </row>
     <row r="48" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>79</v>
@@ -19243,7 +19214,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19254,7 +19225,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>87</v>
@@ -19268,7 +19239,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="8"/>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -19317,7 +19288,7 @@
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -19358,7 +19329,7 @@
       </c>
       <c r="G53" s="39"/>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I53" s="51" t="s">
         <v>107</v>
@@ -19409,7 +19380,7 @@
       </c>
       <c r="G55" s="37"/>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I55" s="51" t="s">
         <v>107</v>
@@ -19466,7 +19437,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -19540,7 +19511,7 @@
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>78</v>
@@ -19610,10 +19581,8 @@
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="J63" s="56"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -19628,17 +19597,14 @@
       <c r="D64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>79</v>
+      <c r="E64" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>121</v>
+      <c r="G64" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19676,22 +19642,16 @@
       <c r="D66" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="9" t="s">
-        <v>79</v>
+      <c r="E66" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F66" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66" s="57" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
@@ -19715,30 +19675,30 @@
       <c r="G67" s="37"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>82</v>
+      <c r="E68" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F68" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>171</v>
+      <c r="H68" s="76" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19786,7 +19746,7 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="68" t="s">
         <v>60</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -19807,7 +19767,7 @@
       <c r="G71" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H71" s="71"/>
+      <c r="H71" s="69"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19845,17 +19805,14 @@
       <c r="D73" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="54" t="s">
-        <v>79</v>
+      <c r="E73" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="41" t="s">
         <v>103</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19880,7 +19837,7 @@
       <c r="G74" s="37"/>
       <c r="H74" s="8"/>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J74" s="56"/>
     </row>
@@ -19908,7 +19865,7 @@
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19957,33 +19914,33 @@
       <c r="F77" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="64" t="s">
-        <v>139</v>
+      <c r="G77" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="69" t="s">
-        <v>123</v>
+      <c r="I77" s="67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="74" t="s">
-        <v>157</v>
+      <c r="I78" s="72" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="60" t="s">
         <v>18</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -20028,7 +19985,7 @@
     </row>
     <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -20045,14 +20002,14 @@
       <c r="F81" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="64" t="s">
+      <c r="G81" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -20069,14 +20026,14 @@
       <c r="F82" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="64" t="s">
+      <c r="G82" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -20093,14 +20050,14 @@
       <c r="F83" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="64" t="s">
+      <c r="G83" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -20117,14 +20074,14 @@
       <c r="F84" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="64" t="s">
+      <c r="G84" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -20141,14 +20098,14 @@
       <c r="F85" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="64" t="s">
+      <c r="G85" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -20165,14 +20122,14 @@
       <c r="F86" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="64" t="s">
+      <c r="G86" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -20189,17 +20146,17 @@
       <c r="F87" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="64" t="s">
+      <c r="G87" s="63" t="s">
         <v>103</v>
       </c>
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>82</v>
@@ -20211,8 +20168,8 @@
       <c r="F88" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G88" s="64" t="s">
-        <v>139</v>
+      <c r="G88" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -20235,13 +20192,13 @@
       <c r="F89" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G89" s="64" t="s">
-        <v>139</v>
+      <c r="G89" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -20261,7 +20218,7 @@
       </c>
       <c r="G90" s="39"/>
       <c r="H90" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20285,7 +20242,7 @@
       </c>
       <c r="G91" s="39"/>
       <c r="H91" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20309,7 +20266,7 @@
       </c>
       <c r="G92" s="39"/>
       <c r="H92" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I92" s="51" t="s">
         <v>107</v>
@@ -20338,13 +20295,11 @@
         <v>103</v>
       </c>
       <c r="H93" s="8"/>
-      <c r="I93" s="49" t="s">
-        <v>108</v>
-      </c>
+      <c r="I93" s="74"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>78</v>
@@ -20365,12 +20320,12 @@
         <v>97</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I94" s="76"/>
+        <v>176</v>
+      </c>
+      <c r="I94" s="74"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61" t="s">
+      <c r="A95" s="60" t="s">
         <v>66</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -20415,7 +20370,7 @@
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="56" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20441,7 +20396,7 @@
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="60" t="s">
+      <c r="A98" s="59" t="s">
         <v>67</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -20507,12 +20462,12 @@
         <v>112</v>
       </c>
       <c r="H100" s="8"/>
-      <c r="I100" s="69" t="s">
+      <c r="I100" s="67" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61" t="s">
+      <c r="A101" s="60" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -20585,7 +20540,7 @@
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61" t="s">
+      <c r="A104" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -20606,7 +20561,7 @@
       <c r="G104" s="37"/>
       <c r="H104" s="8"/>
       <c r="I104" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20630,7 +20585,7 @@
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I105" s="51" t="s">
         <v>107</v>
@@ -20659,8 +20614,8 @@
         <v>95</v>
       </c>
       <c r="H106" s="8"/>
-      <c r="I106" s="69" t="s">
-        <v>119</v>
+      <c r="I106" s="67" t="s">
+        <v>118</v>
       </c>
       <c r="J106" s="56"/>
     </row>
@@ -20679,13 +20634,13 @@
       <c r="F107" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G107" s="64" t="s">
-        <v>139</v>
+      <c r="G107" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="60" t="s">
+      <c r="A108" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B108" s="18" t="s">
@@ -20730,7 +20685,7 @@
       </c>
       <c r="H109" s="8"/>
       <c r="I109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J109" s="56"/>
     </row>
@@ -20757,7 +20712,7 @@
       <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="60" t="s">
         <v>77</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -20780,7 +20735,7 @@
       </c>
       <c r="H111" s="8"/>
       <c r="I111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J111" s="56"/>
     </row>
@@ -20795,255 +20750,255 @@
       <c r="G112"/>
     </row>
     <row r="113" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
       <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
       <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
       <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
       <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
+      <c r="A163" s="62"/>
       <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
+      <c r="A166" s="62"/>
       <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
+      <c r="A169" s="62"/>
       <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
+      <c r="A172" s="62"/>
       <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
       <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
+      <c r="A175" s="62"/>
       <c r="B175" s="2"/>
     </row>
   </sheetData>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2440,7 +2440,7 @@
         <v>171</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>78</v>
@@ -2449,7 +2449,7 @@
         <v>87</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>79</v>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,7 @@
         <v>173</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>78</v>
@@ -2458,10 +2458,10 @@
         <v>87</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>97</v>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -1718,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="103" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19179,7 +19179,7 @@
         <v>166</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>78</v>
@@ -19188,7 +19188,7 @@
         <v>87</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>79</v>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$178</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="195">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -359,9 +359,6 @@
   --  xlsx_type:xlsx_none</t>
   </si>
   <si>
-    <t>7 '_hash_'  attributs supprimés de l'étalon</t>
-  </si>
-  <si>
     <t>Les codes de replacement '%7B et %7D ne se font pas convertir en charactères souhaités. À la place, Ils restent literales: '%7B' et '%7D' dans le string.</t>
   </si>
   <si>
@@ -620,6 +617,15 @@
   </si>
   <si>
     <t>Remplacer par XML_PUBLISHER_NG</t>
+  </si>
+  <si>
+    <t>METADATA_DELTA_FINDER_NG</t>
+  </si>
+  <si>
+    <t>Remplace METADATA_DELTA_FINDER</t>
+  </si>
+  <si>
+    <t>Remplacer par METADATA_DELTA_FINDER_NG</t>
   </si>
 </sst>
 </file>
@@ -1732,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEX177"/>
+  <dimension ref="A1:XEX178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="15"/>
@@ -1901,7 +1907,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>87</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>99</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>78</v>
@@ -2007,7 +2013,7 @@
         <v>79</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2041,19 +2047,19 @@
         <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="57" t="s">
         <v>79</v>
@@ -2163,7 +2169,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>78</v>
@@ -2183,7 +2189,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2208,12 +2214,12 @@
       <c r="G20" s="39"/>
       <c r="H20" s="45"/>
       <c r="I20" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>78</v>
@@ -2235,7 +2241,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2258,11 +2264,11 @@
         <v>79</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2313,7 +2319,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
@@ -2378,12 +2384,12 @@
       <c r="G27" s="39"/>
       <c r="H27" s="45"/>
       <c r="I27" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>78</v>
@@ -2404,12 +2410,12 @@
         <v>97</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
@@ -2427,11 +2433,11 @@
         <v>79</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" s="43"/>
       <c r="I29" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2457,12 +2463,12 @@
         <v>103</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>78</v>
@@ -2483,7 +2489,7 @@
         <v>97</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2503,12 +2509,12 @@
         <v>82</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:16378" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>78</v>
@@ -2529,7 +2535,7 @@
         <v>97</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
@@ -2578,12 +2584,12 @@
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
@@ -2605,7 +2611,7 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:16378" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2632,12 +2638,12 @@
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>78</v>
@@ -2661,7 +2667,7 @@
         <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:16378" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2686,7 +2692,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="45"/>
       <c r="I39" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -19081,10 +19087,10 @@
         <v>97</v>
       </c>
       <c r="H40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" t="s">
         <v>157</v>
-      </c>
-      <c r="I40" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:16378" ht="45" x14ac:dyDescent="0.25">
@@ -19138,12 +19144,12 @@
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>78</v>
@@ -19165,93 +19171,93 @@
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:16378" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="16" t="s">
+      <c r="B44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="29" t="s">
+      <c r="E44" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" t="s">
-        <v>109</v>
+      <c r="H44" s="45"/>
+      <c r="I44" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:16378" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16378" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="34" t="s">
+      <c r="B46" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="44" t="s">
+      <c r="E46" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G46" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" t="s">
-        <v>166</v>
+      <c r="H46" s="45"/>
+      <c r="I46" s="20" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>78</v>
@@ -19269,99 +19275,101 @@
         <v>79</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:16378" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:16378" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="34" t="s">
+      <c r="B49" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="44" t="s">
+      <c r="E49" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" t="s">
-        <v>168</v>
+      <c r="G49" s="39"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>126</v>
+        <v>79</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="37"/>
+      <c r="G50" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>78</v>
+      <c r="C51" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>87</v>
@@ -19374,10 +19382,13 @@
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="8"/>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>78</v>
@@ -19398,8 +19409,8 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>136</v>
+      <c r="A53" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>78</v>
@@ -19416,39 +19427,34 @@
       <c r="F53" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="26"/>
+      <c r="G53" s="37"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>79</v>
+      <c r="A54" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="54" t="s">
-        <v>79</v>
+      <c r="E54" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F54" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I54" s="50" t="s">
-        <v>107</v>
-      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>78</v>
@@ -19466,13 +19472,16 @@
         <v>79</v>
       </c>
       <c r="G55" s="39"/>
+      <c r="H55" t="s">
+        <v>139</v>
+      </c>
       <c r="I55" s="50" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>78</v>
@@ -19489,67 +19498,64 @@
       <c r="F56" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="37"/>
-      <c r="H56" t="s">
-        <v>146</v>
-      </c>
+      <c r="G56" s="39"/>
       <c r="I56" s="50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>78</v>
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>78</v>
+      <c r="E57" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F57" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="37" t="s">
-        <v>101</v>
+      <c r="G57" s="37"/>
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>79</v>
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="53" t="s">
-        <v>79</v>
+      <c r="E58" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F58" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="37"/>
-      <c r="H58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="50" t="s">
-        <v>107</v>
+      <c r="G58" s="37" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
-        <v>51</v>
+      <c r="A59" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>78</v>
@@ -19560,21 +19566,23 @@
       <c r="D59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="54" t="s">
+      <c r="E59" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F59" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G59" s="37"/>
-      <c r="H59" s="8"/>
+      <c r="H59" t="s">
+        <v>100</v>
+      </c>
       <c r="I59" s="50" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>52</v>
+      <c r="A60" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>78</v>
@@ -19598,31 +19606,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>78</v>
+      <c r="A61" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>78</v>
+      <c r="E61" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F61" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="37" t="s">
-        <v>103</v>
+      <c r="G61" s="37"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>78</v>
@@ -19644,8 +19654,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>53</v>
+      <c r="A63" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>78</v>
@@ -19656,8 +19666,8 @@
       <c r="D63" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>79</v>
+      <c r="E63" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F63" s="29" t="s">
         <v>79</v>
@@ -19665,15 +19675,10 @@
       <c r="G63" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J63" s="55"/>
     </row>
-    <row r="64" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -19684,20 +19689,24 @@
       <c r="D64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>78</v>
+      <c r="E64" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="37"/>
+      <c r="G64" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="I64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J64" s="55"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
@@ -19711,16 +19720,17 @@
       <c r="E65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="F65" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
@@ -19734,15 +19744,16 @@
       <c r="E66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="8"/>
+      <c r="F66" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -19759,65 +19770,61 @@
       <c r="F67" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G67" s="37"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="34" t="s">
+      <c r="B69" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E69" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F69" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="20" t="s">
-        <v>184</v>
+      <c r="G69" s="39"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="I69" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -19832,14 +19839,18 @@
         <v>78</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="G70" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>78</v>
@@ -19859,9 +19870,9 @@
       <c r="G71" s="37"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
-        <v>60</v>
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -19878,15 +19889,12 @@
       <c r="F72" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G72" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="68"/>
-      <c r="J72"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>15</v>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="67" t="s">
+        <v>60</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -19903,12 +19911,15 @@
       <c r="F73" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="8"/>
+      <c r="G73" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="68"/>
+      <c r="J73"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
-        <v>61</v>
+      <c r="A74" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>78</v>
@@ -19922,16 +19933,15 @@
       <c r="E74" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" s="41" t="s">
-        <v>103</v>
-      </c>
+      <c r="F74" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>62</v>
+      <c r="A75" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>78</v>
@@ -19945,19 +19955,16 @@
       <c r="E75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="8"/>
-      <c r="I75" t="s">
-        <v>117</v>
-      </c>
-      <c r="J75" s="55"/>
+      <c r="F75" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -19974,17 +19981,16 @@
       <c r="F76" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G76" s="37"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="52" t="s">
-        <v>121</v>
-      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+      <c r="J76" s="55"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>78</v>
@@ -20005,13 +20011,13 @@
         <v>103</v>
       </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="48" t="s">
-        <v>108</v>
+      <c r="I77" s="52" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -20022,62 +20028,67 @@
       <c r="D78" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F78" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G78" s="62" t="s">
-        <v>132</v>
+      <c r="G78" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H78" s="8"/>
-      <c r="I78" s="66" t="s">
-        <v>120</v>
+      <c r="I78" s="48" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>150</v>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="G79" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" s="71" t="s">
-        <v>149</v>
+        <v>131</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="66" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="8"/>
+      <c r="A80" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" s="71" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
+      <c r="A81" s="59" t="s">
+        <v>18</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -20098,8 +20109,8 @@
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="46" t="s">
-        <v>144</v>
+      <c r="A82" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>78</v>
@@ -20116,14 +20127,12 @@
       <c r="F82" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="62" t="s">
-        <v>103</v>
-      </c>
+      <c r="G82" s="37"/>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -20147,7 +20156,7 @@
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="46" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -20171,7 +20180,7 @@
     </row>
     <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -20193,9 +20202,9 @@
       </c>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -20219,7 +20228,7 @@
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -20241,9 +20250,9 @@
       </c>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>78</v>
@@ -20265,79 +20274,79 @@
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>78</v>
+      <c r="B89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G89" s="62" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>93</v>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="G90" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>79</v>
+      <c r="A91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="29" t="s">
+      <c r="E91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="22" t="s">
-        <v>142</v>
-      </c>
+      <c r="F91" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>22</v>
+      <c r="A92" s="58" t="s">
+        <v>20</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>78</v>
@@ -20356,12 +20365,12 @@
       </c>
       <c r="G92" s="39"/>
       <c r="H92" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>78</v>
@@ -20372,76 +20381,74 @@
       <c r="D93" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="54" t="s">
-        <v>79</v>
+      <c r="E93" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F93" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G93" s="39"/>
-      <c r="H93" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="I93" s="50" t="s">
+      <c r="H93" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94" s="39"/>
+      <c r="H94" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I94" s="50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+    <row r="95" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="34" t="s">
+      <c r="B95" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F94" s="44" t="s">
+      <c r="E95" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F95" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="39" t="s">
+      <c r="G95" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I95" s="8" t="s">
+      <c r="H95" s="45"/>
+      <c r="I95" s="77" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59" t="s">
-        <v>66</v>
+      <c r="A96" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>78</v>
@@ -20453,17 +20460,21 @@
         <v>87</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="8"/>
+      <c r="G96" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>23</v>
+      <c r="A97" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>78</v>
@@ -20474,23 +20485,18 @@
       <c r="D97" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E97" s="53" t="s">
-        <v>79</v>
+      <c r="E97" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F97" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G97" s="37"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="55" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>78</v>
@@ -20501,62 +20507,67 @@
       <c r="D98" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>78</v>
+      <c r="E98" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="F98" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="37"/>
+      <c r="G98" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="H98" s="8"/>
+      <c r="I98" s="55" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="99" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" s="37"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="19" t="s">
+      <c r="B100" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D100" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E99" s="54" t="s">
+      <c r="E100" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F100" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="45"/>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" s="37"/>
-      <c r="H100" s="8"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="45"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>78</v>
@@ -20567,23 +20578,18 @@
       <c r="D101" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E101" s="53" t="s">
-        <v>79</v>
+      <c r="E101" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G101" s="37" t="s">
-        <v>112</v>
-      </c>
+      <c r="G101" s="37"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="66" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
-        <v>70</v>
+      <c r="A102" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>78</v>
@@ -20594,23 +20600,23 @@
       <c r="D102" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" s="31" t="s">
-        <v>92</v>
+      <c r="E102" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G102" s="37" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H102" s="8"/>
-      <c r="I102" s="52" t="s">
-        <v>111</v>
+      <c r="I102" s="66" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>71</v>
+      <c r="A103" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>78</v>
@@ -20624,15 +20630,20 @@
       <c r="E103" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="37"/>
+      <c r="F103" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G103" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="H103" s="8"/>
+      <c r="I103" s="52" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>78</v>
@@ -20649,504 +20660,526 @@
       <c r="F104" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G104" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G104" s="37"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="58" t="s">
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="34" t="s">
+      <c r="B106" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E105" s="54" t="s">
+      <c r="E106" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F106" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="39" t="s">
+      <c r="G106" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H105" s="45"/>
-      <c r="I105" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E106" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H106" s="8"/>
-      <c r="I106" t="s">
+      <c r="H106" s="45"/>
+      <c r="I106" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>79</v>
+      <c r="A107" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E107" s="54" t="s">
+      <c r="E107" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F107" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G107" s="37"/>
-      <c r="H107" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I107" s="50" t="s">
-        <v>107</v>
+      <c r="G107" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>78</v>
+      <c r="A108" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F108" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G108" s="38" t="s">
+      <c r="G108" s="37"/>
+      <c r="H108" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I108" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="J108" s="55"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="J109" s="55"/>
     </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="46" t="s">
+    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G109" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G110" s="37"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G110" s="62" t="s">
+        <v>131</v>
+      </c>
       <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>78</v>
+      <c r="A111" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>78</v>
+      <c r="E111" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G111" s="38" t="s">
-        <v>95</v>
-      </c>
+      <c r="G111" s="37"/>
       <c r="H111" s="8"/>
-      <c r="I111" t="s">
-        <v>119</v>
-      </c>
-      <c r="J111" s="55"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>79</v>
+      <c r="A112" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="54" t="s">
-        <v>79</v>
+      <c r="E112" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="37"/>
+      <c r="G112" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="H112" s="8"/>
+      <c r="I112" t="s">
+        <v>118</v>
+      </c>
+      <c r="J112" s="55"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>78</v>
+      <c r="A113" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>78</v>
+      <c r="E113" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G113" s="38" t="s">
+      <c r="G113" s="37"/>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H113" s="8"/>
-      <c r="I113" t="s">
-        <v>119</v>
-      </c>
-      <c r="J113" s="55"/>
+      <c r="H114" s="8"/>
+      <c r="I114" t="s">
+        <v>118</v>
+      </c>
+      <c r="J114" s="55"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35" t="s">
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B114" s="36"/>
-      <c r="C114" s="40"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="60"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="40"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="60"/>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="60"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="60"/>
-      <c r="B121" s="1"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="60"/>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="60"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="60"/>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="60"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="60"/>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="60"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="60"/>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="60"/>
-      <c r="B133" s="1"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="60"/>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="60"/>
-      <c r="B136" s="1"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="60"/>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="61"/>
-      <c r="B138" s="2"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="60"/>
-      <c r="B139" s="1"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="60"/>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="60"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="60"/>
-      <c r="B142" s="1"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="60"/>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="60"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="60"/>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="61"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="60"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="61"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="60"/>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="60"/>
-      <c r="B151" s="1"/>
+      <c r="A151" s="61"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="60"/>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="60"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="60"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="61"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="60"/>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="60"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="60"/>
-      <c r="B157" s="1"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="60"/>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="60"/>
-      <c r="B160" s="1"/>
+      <c r="A160" s="61"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="60"/>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="61"/>
-      <c r="B162" s="2"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="60"/>
-      <c r="B163" s="1"/>
+      <c r="A163" s="61"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="60"/>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="61"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="60"/>
-      <c r="B166" s="1"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="60"/>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="61"/>
-      <c r="B168" s="2"/>
+      <c r="A168" s="60"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="60"/>
-      <c r="B169" s="1"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="60"/>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="61"/>
-      <c r="B171" s="2"/>
+      <c r="A171" s="60"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="60"/>
-      <c r="B172" s="1"/>
+      <c r="A172" s="61"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="60"/>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="61"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="60"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="60"/>
-      <c r="B175" s="1"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="60"/>
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="61"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="60"/>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="61"/>
+      <c r="B178" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B89">
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="30" priority="101" operator="equal">
       <formula>"n"</formula>
     </cfRule>
@@ -21156,7 +21189,7 @@
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
+  <conditionalFormatting sqref="B90">
     <cfRule type="expression" priority="102">
       <formula>isempty()</formula>
     </cfRule>
@@ -21197,7 +21230,7 @@
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+  <conditionalFormatting sqref="B80">
     <cfRule type="expression" priority="45">
       <formula>isempty()</formula>
     </cfRule>
@@ -21205,7 +21238,7 @@
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+  <conditionalFormatting sqref="B80">
     <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
       <formula>"n"</formula>
     </cfRule>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$179</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="199">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -627,6 +627,18 @@
   <si>
     <t>Remplacer par METADATA_DELTA_FINDER_NG</t>
   </si>
+  <si>
+    <t>Unitaire</t>
+  </si>
+  <si>
+    <t>SECTOR_MAPPER_NG</t>
+  </si>
+  <si>
+    <t>Remplace SECTOR_MAPPER</t>
+  </si>
+  <si>
+    <t>Remplacer par SECTOR_MAPPER_NG</t>
+  </si>
 </sst>
 </file>
 
@@ -935,7 +947,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1140,6 +1152,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1738,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEX178"/>
+  <dimension ref="A1:XEX179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20130,33 +20145,36 @@
       <c r="G82" s="37"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
+    <row r="83" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="16" t="s">
+      <c r="B83" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="29" t="s">
+      <c r="E83" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="62" t="s">
+      <c r="G83" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="20" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>137</v>
+      <c r="A84" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -20165,7 +20183,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>78</v>
@@ -20174,13 +20192,16 @@
         <v>79</v>
       </c>
       <c r="G84" s="62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H84" s="8"/>
+      <c r="I84" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -20204,7 +20225,7 @@
     </row>
     <row r="86" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -20226,9 +20247,9 @@
       </c>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -20252,7 +20273,7 @@
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>78</v>
@@ -20274,9 +20295,9 @@
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>78</v>
@@ -20298,46 +20319,46 @@
       </c>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>78</v>
+        <v>142</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G90" s="62" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>93</v>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="G91" s="62" t="s">
         <v>131</v>
@@ -20345,32 +20366,32 @@
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>79</v>
+      <c r="A92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E92" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="29" t="s">
+      <c r="E92" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="22" t="s">
-        <v>141</v>
-      </c>
+      <c r="F92" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>22</v>
+      <c r="A93" s="58" t="s">
+        <v>20</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>78</v>
@@ -20394,7 +20415,7 @@
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>78</v>
@@ -20405,76 +20426,74 @@
       <c r="D94" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="54" t="s">
-        <v>79</v>
+      <c r="E94" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F94" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G94" s="39"/>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="39"/>
+      <c r="H95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I94" s="50" t="s">
+      <c r="I95" s="50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+    <row r="96" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="34" t="s">
+      <c r="B96" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" s="44" t="s">
+      <c r="E96" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G95" s="39" t="s">
+      <c r="G96" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H95" s="45"/>
-      <c r="I95" s="77" t="s">
+      <c r="H96" s="45"/>
+      <c r="I96" s="77" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="s">
-        <v>66</v>
+      <c r="A97" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>78</v>
@@ -20486,17 +20505,21 @@
         <v>87</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F97" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="8"/>
+      <c r="G97" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>23</v>
+      <c r="A98" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>78</v>
@@ -20507,23 +20530,18 @@
       <c r="D98" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E98" s="53" t="s">
-        <v>79</v>
+      <c r="E98" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F98" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G98" s="37"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="55" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>78</v>
@@ -20534,62 +20552,67 @@
       <c r="D99" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>78</v>
+      <c r="E99" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="F99" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G99" s="37"/>
+      <c r="G99" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="H99" s="8"/>
+      <c r="I99" s="55" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="100" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" s="37"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="19" t="s">
+      <c r="B101" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D101" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E100" s="54" t="s">
+      <c r="E101" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F100" s="44" t="s">
+      <c r="F101" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="39"/>
-      <c r="H100" s="45"/>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="37"/>
-      <c r="H101" s="8"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="45"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>78</v>
@@ -20600,23 +20623,18 @@
       <c r="D102" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="53" t="s">
-        <v>79</v>
+      <c r="E102" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F102" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="37" t="s">
-        <v>111</v>
-      </c>
+      <c r="G102" s="37"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="66" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="s">
-        <v>70</v>
+      <c r="A103" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>78</v>
@@ -20627,23 +20645,23 @@
       <c r="D103" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F103" s="31" t="s">
-        <v>92</v>
+      <c r="E103" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G103" s="37" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H103" s="8"/>
-      <c r="I103" s="52" t="s">
-        <v>110</v>
+      <c r="I103" s="66" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>71</v>
+      <c r="A104" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>78</v>
@@ -20657,15 +20675,20 @@
       <c r="E104" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F104" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="37"/>
+      <c r="F104" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G104" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="H104" s="8"/>
+      <c r="I104" s="52" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>78</v>
@@ -20682,504 +20705,526 @@
       <c r="F105" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G105" s="37"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="58" t="s">
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" s="34" t="s">
+      <c r="B107" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E106" s="54" t="s">
+      <c r="E107" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F106" s="44" t="s">
+      <c r="F107" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="39" t="s">
+      <c r="G107" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H106" s="45"/>
-      <c r="I106" s="20" t="s">
+      <c r="H107" s="45"/>
+      <c r="I107" s="20" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H107" s="8"/>
-      <c r="I107" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>79</v>
+      <c r="A108" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E108" s="54" t="s">
+      <c r="E108" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F108" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I108" s="50" t="s">
-        <v>107</v>
+      <c r="G108" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>78</v>
+      <c r="A109" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G109" s="38" t="s">
+      <c r="G109" s="37"/>
+      <c r="H109" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I109" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="66" t="s">
+      <c r="H110" s="8"/>
+      <c r="I110" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="J109" s="55"/>
+      <c r="J110" s="55"/>
     </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
+    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B111" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G110" s="62" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G111" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E111" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G111" s="37"/>
       <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>78</v>
+      <c r="A112" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="7" t="s">
-        <v>78</v>
+      <c r="E112" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="38" t="s">
-        <v>95</v>
-      </c>
+      <c r="G112" s="37"/>
       <c r="H112" s="8"/>
-      <c r="I112" t="s">
-        <v>118</v>
-      </c>
-      <c r="J112" s="55"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>79</v>
+      <c r="A113" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="54" t="s">
-        <v>79</v>
+      <c r="E113" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G113" s="37"/>
+      <c r="G113" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="H113" s="8"/>
+      <c r="I113" t="s">
+        <v>118</v>
+      </c>
+      <c r="J113" s="55"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>78</v>
+      <c r="A114" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E114" s="7" t="s">
-        <v>78</v>
+      <c r="E114" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G114" s="38" t="s">
+      <c r="G114" s="37"/>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H114" s="8"/>
-      <c r="I114" t="s">
+      <c r="H115" s="8"/>
+      <c r="I115" t="s">
         <v>118</v>
       </c>
-      <c r="J114" s="55"/>
+      <c r="J115" s="55"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="s">
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="40"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="40"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="60"/>
       <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="60"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="60"/>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="60"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="60"/>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="60"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="60"/>
       <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="60"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="60"/>
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="61"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="60"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="60"/>
       <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="60"/>
-      <c r="B134" s="1"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="60"/>
       <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="60"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="60"/>
       <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="60"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="60"/>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="60"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="60"/>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="60"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="61"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="60"/>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="60"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="60"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="60"/>
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="60"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="60"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="60"/>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="60"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="60"/>
-      <c r="B155" s="1"/>
+      <c r="A155" s="61"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="60"/>
       <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="60"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="61"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="60"/>
       <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="60"/>
-      <c r="B161" s="1"/>
+      <c r="A161" s="61"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="60"/>
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="61"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="60"/>
-      <c r="B164" s="1"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="60"/>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="61"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="60"/>
-      <c r="B167" s="1"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="60"/>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="61"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="60"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="60"/>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="61"/>
-      <c r="B172" s="2"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="60"/>
-      <c r="B173" s="1"/>
+      <c r="A173" s="61"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="60"/>
       <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="61"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="60"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="61"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="60"/>
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="61"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="61"/>
+      <c r="B179" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B91">
     <cfRule type="cellIs" dxfId="30" priority="101" operator="equal">
       <formula>"n"</formula>
     </cfRule>
@@ -21189,7 +21234,7 @@
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B91">
     <cfRule type="expression" priority="102">
       <formula>isempty()</formula>
     </cfRule>

--- a/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
+++ b/FME_files/UNIT_TESTS/Inventaire_unit_test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$180</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="198">
   <si>
     <t>AB_MISSING_ATTRIBUTE_MANAGER</t>
   </si>
@@ -626,6 +626,15 @@
   </si>
   <si>
     <t>Remplacer par METADATA_DELTA_FINDER_NG</t>
+  </si>
+  <si>
+    <t>NL_CATALOGUE_READER</t>
+  </si>
+  <si>
+    <t>NL_ATTRIBUTE_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>A besoin de l'application WebServer.bat pour simuler un serveur web.</t>
   </si>
 </sst>
 </file>
@@ -1738,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEX178"/>
+  <dimension ref="A1:XEX180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19309,7 +19318,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>12</v>
       </c>
@@ -19334,7 +19343,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -19361,7 +19370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -19386,7 +19395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -19408,7 +19417,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -19430,9 +19439,9 @@
       <c r="G53" s="37"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
-        <v>135</v>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="67" t="s">
+        <v>196</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>78</v>
@@ -19449,63 +19458,63 @@
       <c r="F54" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="26"/>
+      <c r="G54" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>79</v>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="54" t="s">
-        <v>79</v>
+      <c r="E55" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="39"/>
-      <c r="H55" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="50" t="s">
-        <v>107</v>
+        <v>78</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>79</v>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="54" t="s">
-        <v>79</v>
+      <c r="E56" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F56" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="39"/>
-      <c r="I56" s="50" t="s">
-        <v>107</v>
-      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -19522,40 +19531,41 @@
       <c r="F57" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="37"/>
+      <c r="G57" s="39"/>
       <c r="H57" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I57" s="50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>78</v>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>78</v>
+      <c r="E58" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F58" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="37" t="s">
-        <v>101</v>
+      <c r="G58" s="39"/>
+      <c r="I58" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>78</v>
@@ -19566,7 +19576,7 @@
       <c r="D59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F59" s="29" t="s">
@@ -19574,40 +19584,38 @@
       </c>
       <c r="G59" s="37"/>
       <c r="H59" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="I59" s="50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>79</v>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="54" t="s">
-        <v>79</v>
+      <c r="E60" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F60" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="50" t="s">
-        <v>107</v>
+      <c r="G60" s="37" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>78</v>
@@ -19618,67 +19626,73 @@
       <c r="D61" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G61" s="37"/>
-      <c r="H61" s="8"/>
+      <c r="H61" t="s">
+        <v>100</v>
+      </c>
       <c r="I61" s="50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>78</v>
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>78</v>
+      <c r="E62" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F62" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="37" t="s">
-        <v>103</v>
+      <c r="G62" s="37"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>78</v>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>78</v>
+      <c r="E63" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="F63" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="37" t="s">
-        <v>103</v>
+      <c r="G63" s="37"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>53</v>
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -19689,8 +19703,8 @@
       <c r="D64" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>79</v>
+      <c r="E64" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>79</v>
@@ -19698,15 +19712,10 @@
       <c r="G64" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" t="s">
-        <v>115</v>
-      </c>
-      <c r="J64" s="55"/>
     </row>
-    <row r="65" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>54</v>
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>78</v>
@@ -19723,14 +19732,13 @@
       <c r="F65" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
+      <c r="G65" s="37" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>78</v>
@@ -19741,19 +19749,24 @@
       <c r="D66" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>78</v>
+      <c r="E66" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>103</v>
       </c>
+      <c r="H66" s="8"/>
+      <c r="I66" t="s">
+        <v>115</v>
+      </c>
+      <c r="J66" s="55"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>78</v>
@@ -19772,10 +19785,12 @@
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="8"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>78</v>
@@ -19789,42 +19804,38 @@
       <c r="E68" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="29" t="s">
-        <v>79</v>
+      <c r="F68" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="34" t="s">
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E69" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="44" t="s">
+      <c r="E69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="G69" s="37"/>
+      <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>78</v>
@@ -19839,40 +19850,41 @@
         <v>78</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="I70" s="43" t="s">
-        <v>161</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="16" t="s">
+    <row r="71" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="29" t="s">
+      <c r="E71" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="37"/>
-      <c r="H71" s="8"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="20" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>78</v>
@@ -19887,14 +19899,18 @@
         <v>78</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" s="37"/>
-      <c r="H72" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="G72" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="43" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="67" t="s">
-        <v>60</v>
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -19911,15 +19927,12 @@
       <c r="F73" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" s="68"/>
-      <c r="J73"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>78</v>
@@ -19939,9 +19952,9 @@
       <c r="G74" s="37"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
-        <v>61</v>
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="67" t="s">
+        <v>60</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>78</v>
@@ -19955,16 +19968,18 @@
       <c r="E75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" s="41" t="s">
+      <c r="F75" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="37" t="s">
         <v>103</v>
       </c>
+      <c r="H75" s="68"/>
+      <c r="J75"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -19983,14 +19998,10 @@
       </c>
       <c r="G76" s="37"/>
       <c r="H76" s="8"/>
-      <c r="I76" t="s">
-        <v>116</v>
-      </c>
-      <c r="J76" s="55"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>63</v>
+      <c r="A77" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>78</v>
@@ -20004,20 +20015,16 @@
       <c r="E77" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="37" t="s">
+      <c r="F77" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="41" t="s">
         <v>103</v>
-      </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="52" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>78</v>
@@ -20034,17 +20041,16 @@
       <c r="F78" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="G78" s="37"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="48" t="s">
-        <v>108</v>
-      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+      <c r="J78" s="55"/>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>78</v>
@@ -20055,40 +20061,50 @@
       <c r="D79" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E79" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F79" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" s="62" t="s">
-        <v>131</v>
+      <c r="G79" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H79" s="8"/>
-      <c r="I79" s="66" t="s">
-        <v>119</v>
+      <c r="I79" s="52" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G80" s="62" t="s">
+      <c r="A80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I80" s="71" t="s">
-        <v>148</v>
+      <c r="H80" s="8"/>
+      <c r="I80" s="48" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
-        <v>18</v>
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>78</v>
@@ -20099,40 +20115,40 @@
       <c r="D81" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F81" s="29" t="s">
+      <c r="E81" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="37"/>
+      <c r="F81" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" s="62" t="s">
+        <v>131</v>
+      </c>
       <c r="H81" s="8"/>
+      <c r="I81" s="66" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="8"/>
+      <c r="A82" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I82" s="71" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
-        <v>143</v>
+      <c r="A83" s="59" t="s">
+        <v>18</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>78</v>
@@ -20149,14 +20165,12 @@
       <c r="F83" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="62" t="s">
-        <v>103</v>
-      </c>
+      <c r="G83" s="37"/>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>137</v>
+      <c r="A84" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>78</v>
@@ -20173,14 +20187,12 @@
       <c r="F84" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="62" t="s">
-        <v>103</v>
-      </c>
+      <c r="G84" s="37"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>78</v>
@@ -20204,7 +20216,7 @@
     </row>
     <row r="86" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>78</v>
@@ -20226,9 +20238,9 @@
       </c>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>78</v>
@@ -20250,9 +20262,9 @@
       </c>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>78</v>
@@ -20274,9 +20286,9 @@
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>78</v>
@@ -20300,29 +20312,31 @@
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>78</v>
+        <v>140</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="G90" s="62" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>19</v>
+      <c r="A91" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>78</v>
@@ -20333,68 +20347,66 @@
       <c r="D91" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F91" s="31" t="s">
-        <v>93</v>
-      </c>
       <c r="G91" s="62" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="22" t="s">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
         <v>141</v>
       </c>
+      <c r="B92" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>79</v>
+      <c r="A93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F93" s="29" t="s">
+      <c r="E93" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="22" t="s">
-        <v>141</v>
-      </c>
+      <c r="F93" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>21</v>
+      <c r="A94" s="58" t="s">
+        <v>20</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>78</v>
@@ -20405,98 +20417,98 @@
       <c r="D94" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="54" t="s">
-        <v>79</v>
+      <c r="E94" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F94" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G94" s="39"/>
-      <c r="H94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I94" s="50" t="s">
-        <v>107</v>
+      <c r="H94" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="34" t="s">
+      <c r="C95" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G95" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="H95" s="45"/>
-      <c r="I95" s="77" t="s">
-        <v>182</v>
+      <c r="G95" s="39"/>
+      <c r="H95" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>78</v>
+      <c r="A96" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="54" t="s">
         <v>79</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G96" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>181</v>
+      <c r="G96" s="39"/>
+      <c r="H96" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I96" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="16" t="s">
+    <row r="97" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F97" s="29" t="s">
+      <c r="E97" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="8"/>
+      <c r="G97" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="45"/>
+      <c r="I97" s="77" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>78</v>
@@ -20507,23 +20519,22 @@
       <c r="D98" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E98" s="53" t="s">
+      <c r="E98" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F98" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G98" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="55" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>24</v>
+      <c r="A99" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>78</v>
@@ -20543,31 +20554,36 @@
       <c r="G99" s="37"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="19" t="s">
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100" s="54" t="s">
+      <c r="F100" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F100" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" s="39"/>
-      <c r="H100" s="45"/>
+      <c r="G100" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="55" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>78</v>
@@ -20587,36 +20603,31 @@
       <c r="G101" s="37"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="16" t="s">
+    <row r="102" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="53" t="s">
+      <c r="E102" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="66" t="s">
-        <v>109</v>
-      </c>
+      <c r="G102" s="39"/>
+      <c r="H102" s="45"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="s">
-        <v>70</v>
+      <c r="A103" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>78</v>
@@ -20630,20 +20641,15 @@
       <c r="E103" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="G103" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="F103" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="37"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="52" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>78</v>
@@ -20654,18 +20660,23 @@
       <c r="D104" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>78</v>
+      <c r="E104" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G104" s="37"/>
+      <c r="G104" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="H104" s="8"/>
+      <c r="I104" s="66" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>25</v>
+      <c r="A105" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>78</v>
@@ -20679,44 +20690,42 @@
       <c r="E105" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F105" s="29" t="s">
-        <v>79</v>
+      <c r="F105" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="G105" s="37" t="s">
         <v>103</v>
       </c>
       <c r="H105" s="8"/>
+      <c r="I105" s="52" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="106" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" s="34" t="s">
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E106" s="54" t="s">
+      <c r="E106" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F106" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H106" s="45"/>
-      <c r="I106" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="G106" s="37"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
-        <v>189</v>
+      <c r="A107" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>78</v>
@@ -20727,50 +20736,47 @@
       <c r="D107" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E107" s="53" t="s">
-        <v>79</v>
+      <c r="E107" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F107" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G107" s="37" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H107" s="8"/>
-      <c r="I107" t="s">
-        <v>190</v>
-      </c>
     </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>72</v>
+    <row r="108" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="58" t="s">
+        <v>26</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" s="16" t="s">
+      <c r="C108" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="34" t="s">
         <v>87</v>
       </c>
       <c r="E108" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I108" s="50" t="s">
-        <v>107</v>
+      <c r="G108" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="45"/>
+      <c r="I108" s="20" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>73</v>
+      <c r="A109" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>78</v>
@@ -20781,94 +20787,98 @@
       <c r="D109" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G109" s="38" t="s">
-        <v>95</v>
+      <c r="G109" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="H109" s="8"/>
-      <c r="I109" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="J109" s="55"/>
+      <c r="I109" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" s="5" t="s">
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G110" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="H110" s="8"/>
+      <c r="D110" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="37"/>
+      <c r="H110" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I110" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>79</v>
+      <c r="A111" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E111" s="54" t="s">
+      <c r="E111" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G111" s="37"/>
+      <c r="G111" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="H111" s="8"/>
+      <c r="I111" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="J111" s="55"/>
     </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>75</v>
+    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F112" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="38" t="s">
-        <v>95</v>
+      <c r="C112" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112" s="62" t="s">
+        <v>131</v>
       </c>
       <c r="H112" s="8"/>
-      <c r="I112" t="s">
-        <v>118</v>
-      </c>
-      <c r="J112" s="55"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>76</v>
+      <c r="A113" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>78</v>
@@ -20889,8 +20899,8 @@
       <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59" t="s">
-        <v>77</v>
+      <c r="A114" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>78</v>
@@ -20916,270 +20926,320 @@
       </c>
       <c r="J114" s="55"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="40"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="37"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H116" s="8"/>
+      <c r="I116" t="s">
+        <v>118</v>
+      </c>
+      <c r="J116" s="55"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
-      <c r="B117" s="1"/>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="36"/>
+      <c r="C117" s="40"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="60"/>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="60"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="60"/>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="60"/>
-      <c r="B123" s="1"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="60"/>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="60"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="60"/>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="60"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="61"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="60"/>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="60"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="61"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="60"/>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="60"/>
-      <c r="B135" s="1"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="61"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="60"/>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="60"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="60"/>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="60"/>
-      <c r="B141" s="1"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="60"/>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="60"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="61"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="60"/>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="60"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="60"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="60"/>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="60"/>
-      <c r="B150" s="1"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="60"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="60"/>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="60"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="61"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="60"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="60"/>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="60"/>
-      <c r="B156" s="1"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="61"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="60"/>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="60"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="61"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="61"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="60"/>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="60"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="61"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="61"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="60"/>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="60"/>
-      <c r="B165" s="1"/>
+      <c r="A165" s="61"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="61"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="60"/>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="60"/>
-      <c r="B168" s="1"/>
+      <c r="A168" s="61"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="61"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="60"/>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="60"/>
-      <c r="B171" s="1"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="61"/>
-      <c r="B172" s="2"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="60"/>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="60"/>
-      <c r="B174" s="1"/>
+      <c r="A174" s="61"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="61"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="60"/>
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="60"/>
-      <c r="B177" s="1"/>
+      <c r="A177" s="61"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="61"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="60"/>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="61"/>
+      <c r="B180" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B92">
     <cfRule type="cellIs" dxfId="30" priority="101" operator="equal">
       <formula>"n"</formula>
     </cfRule>
@@ -21189,7 +21249,7 @@
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B92">
     <cfRule type="expression" priority="102">
       <formula>isempty()</formula>
     </cfRule>
@@ -21230,7 +21290,7 @@
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B82">
     <cfRule type="expression" priority="45">
       <formula>isempty()</formula>
     </cfRule>
@@ -21238,7 +21298,7 @@
       <formula>"'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B82">
     <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
       <formula>"n"</formula>
     </cfRule>
